--- a/data/Player Rankings-ordered.xlsx
+++ b/data/Player Rankings-ordered.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="Unweighted" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="408">
   <si>
     <t>Team</t>
   </si>
@@ -1299,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1309,6 +1309,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1591,31 +1592,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>407</v>
       </c>
@@ -1635,7 +1634,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1648,14 +1647,14 @@
       <c r="D3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>13.7</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>6.85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1668,14 +1667,14 @@
       <c r="D4" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>6</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1688,14 +1687,14 @@
       <c r="D5" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1708,14 +1707,14 @@
       <c r="D6" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="2">
-        <v>9.94</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E6" s="3">
+        <v>9.9400000000000013</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.9700000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1728,14 +1727,14 @@
       <c r="D7" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E7" s="2">
-        <v>9.94</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E7" s="3">
+        <v>9.9400000000000013</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.9700000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1748,14 +1747,14 @@
       <c r="D8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>14.01</v>
       </c>
-      <c r="F8" s="2">
-        <v>4.67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F8" s="3">
+        <v>4.6700000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1768,14 +1767,14 @@
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>14.01</v>
       </c>
-      <c r="F9" s="2">
-        <v>4.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F9" s="3">
+        <v>4.6700000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1788,14 +1787,14 @@
       <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>12.1</v>
       </c>
-      <c r="F10" s="2">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F10" s="3">
+        <v>4.0333333333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1808,14 +1807,14 @@
       <c r="D11" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>12.1</v>
       </c>
-      <c r="F11" s="2">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F11" s="3">
+        <v>4.0333333333333332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1828,14 +1827,14 @@
       <c r="D12" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>14.6</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>3.65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1848,14 +1847,14 @@
       <c r="D13" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>16.010000000000002</v>
       </c>
-      <c r="F13" s="2">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F13" s="3">
+        <v>3.202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1868,54 +1867,54 @@
       <c r="D14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E14" s="3">
+        <v>8.5999999999999979</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.8666666666666658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2">
-        <v>25.443999999999999</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="E15" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2.816666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>347</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="2">
-        <v>25.443999999999999</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+      <c r="E16" s="3">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1923,19 +1922,19 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="2">
-        <v>25.443999999999999</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3">
+        <v>22.846</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.5384444444444449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1943,19 +1942,19 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="2">
-        <v>25.443999999999999</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="E18" s="3">
+        <v>22.846</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.5384444444444449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1963,39 +1962,39 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>363</v>
+        <v>143</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E19" s="2">
-        <v>25.443999999999999</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="E19" s="3">
+        <v>22.846</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.5384444444444449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="2">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="E20" s="3">
+        <v>22.846</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.5384444444444449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2003,59 +2002,59 @@
         <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E21" s="2">
-        <v>16.844000000000001</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+      <c r="E21" s="3">
+        <v>22.846</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2.5384444444444449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>347</v>
+        <v>242</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E22" s="2">
-        <v>13</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="E22" s="3">
+        <v>14.246</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2.374333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="2">
-        <v>9.4339999999999993</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.9400000000000011</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.9400000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2063,19 +2062,19 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1.94</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.9400000000000011</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.9400000000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2083,19 +2082,19 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1.94</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2103,39 +2102,39 @@
         <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="2">
-        <v>11.433999999999999</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6.8359999999999976</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.708999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1.87</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8.8359999999999985</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.4726666666666659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2148,14 +2147,14 @@
       <c r="D28" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>23.26</v>
       </c>
-      <c r="F28" s="2">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F28" s="3">
+        <v>1.4537500000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2168,14 +2167,14 @@
       <c r="D29" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E29" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="3">
+        <v>8.6999999999999975</v>
+      </c>
+      <c r="F29" s="3">
         <v>1.45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2188,14 +2187,14 @@
       <c r="D30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>22.36</v>
       </c>
-      <c r="F30" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F30" s="3">
+        <v>1.3975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2208,14 +2207,14 @@
       <c r="D31" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>10.24</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>1.28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2228,14 +2227,14 @@
       <c r="D32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="2">
-        <v>3.57</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="E32" s="3">
+        <v>3.5700000000000012</v>
+      </c>
+      <c r="F32" s="3">
         <v>1.19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2248,14 +2247,14 @@
       <c r="D33" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="2">
-        <v>3.57</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="E33" s="3">
+        <v>3.5700000000000012</v>
+      </c>
+      <c r="F33" s="3">
         <v>1.19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2268,14 +2267,14 @@
       <c r="D34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="2">
-        <v>19.96</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E34" s="3">
+        <v>19.95999999999999</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1.174117647058823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2288,14 +2287,14 @@
       <c r="D35" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="2">
-        <v>19.96</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E35" s="3">
+        <v>19.95999999999999</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.174117647058823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2308,14 +2307,14 @@
       <c r="D36" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="2">
-        <v>19.96</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E36" s="3">
+        <v>19.95999999999999</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.174117647058823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2328,14 +2327,14 @@
       <c r="D37" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E37" s="2">
-        <v>19.96</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E37" s="3">
+        <v>19.95999999999999</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1.174117647058823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2348,14 +2347,14 @@
       <c r="D38" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="2">
-        <v>19.96</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E38" s="3">
+        <v>19.95999999999999</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.174117647058823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2368,14 +2367,14 @@
       <c r="D39" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E39" s="2">
-        <v>19.96</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E39" s="3">
+        <v>19.95999999999999</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1.174117647058823</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2388,14 +2387,14 @@
       <c r="D40" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E40" s="2">
-        <v>19.96</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E40" s="3">
+        <v>19.95999999999999</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.174117647058823</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2408,14 +2407,14 @@
       <c r="D41" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>2</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2428,14 +2427,14 @@
       <c r="D42" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E42" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E42" s="3">
+        <v>8.6999999999999975</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.96666666666666634</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2448,14 +2447,14 @@
       <c r="D43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>3.9</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>0.78</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -2468,14 +2467,14 @@
       <c r="D44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="2">
-        <v>3.66</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E44" s="3">
+        <v>3.6600000000000019</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.73200000000000043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2488,14 +2487,14 @@
       <c r="D45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="2">
-        <v>12.17</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E45" s="3">
+        <v>12.169999999999989</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.71588235294117619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -2508,14 +2507,14 @@
       <c r="D46" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="2">
-        <v>12.17</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E46" s="3">
+        <v>12.169999999999989</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.71588235294117619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2528,14 +2527,14 @@
       <c r="D47" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E47" s="2">
-        <v>12.17</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E47" s="3">
+        <v>12.169999999999989</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.71588235294117619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -2548,14 +2547,14 @@
       <c r="D48" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E48" s="2">
-        <v>12.17</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E48" s="3">
+        <v>12.169999999999989</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.71588235294117619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -2568,14 +2567,14 @@
       <c r="D49" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E49" s="2">
-        <v>12.17</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E49" s="3">
+        <v>12.169999999999989</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.71588235294117619</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -2588,14 +2587,14 @@
       <c r="D50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="2">
-        <v>12.17</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E50" s="3">
+        <v>12.169999999999989</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.71588235294117619</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -2608,14 +2607,14 @@
       <c r="D51" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E51" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E51" s="3">
+        <v>8.6999999999999975</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.66923076923076907</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -2628,14 +2627,14 @@
       <c r="D52" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>13.51</v>
       </c>
-      <c r="F52" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F52" s="3">
+        <v>0.56291666666666673</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -2648,14 +2647,14 @@
       <c r="D53" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>13.51</v>
       </c>
-      <c r="F53" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F53" s="3">
+        <v>0.56291666666666673</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -2668,14 +2667,14 @@
       <c r="D54" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E54" s="2">
-        <v>6.74</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E54" s="3">
+        <v>6.7399999999999993</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.56166666666666665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -2688,14 +2687,14 @@
       <c r="D55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E55" s="3">
+        <v>8.6999999999999975</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.54374999999999984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -2708,14 +2707,14 @@
       <c r="D56" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E56" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E56" s="3">
+        <v>8.6999999999999975</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.54374999999999984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -2728,14 +2727,14 @@
       <c r="D57" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E57" s="3">
+        <v>8.6999999999999975</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.54374999999999984</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -2748,14 +2747,14 @@
       <c r="D58" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E58" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E58" s="3">
+        <v>8.6999999999999975</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.54374999999999984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -2768,14 +2767,14 @@
       <c r="D59" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E59" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E59" s="3">
+        <v>8.6999999999999975</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.54374999999999984</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -2788,14 +2787,14 @@
       <c r="D60" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>11.81</v>
       </c>
-      <c r="F60" s="2">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F60" s="3">
+        <v>0.53681818181818197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -2808,14 +2807,14 @@
       <c r="D61" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>11.64</v>
       </c>
-      <c r="F61" s="2">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F61" s="3">
+        <v>0.50608695652173918</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -2828,14 +2827,14 @@
       <c r="D62" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>11.57</v>
       </c>
-      <c r="F62" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F62" s="3">
+        <v>0.50304347826086959</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -2848,14 +2847,14 @@
       <c r="D63" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>11.57</v>
       </c>
-      <c r="F63" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F63" s="3">
+        <v>0.50304347826086959</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -2868,14 +2867,14 @@
       <c r="D64" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E64" s="2">
-        <v>9.94</v>
-      </c>
-      <c r="F64" s="2">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E64" s="3">
+        <v>9.9400000000000013</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.47333333333333338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -2888,14 +2887,14 @@
       <c r="D65" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E65" s="2">
-        <v>1.96</v>
-      </c>
-      <c r="F65" s="2">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E65" s="3">
+        <v>1.9600000000000011</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.32666666666666683</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -2908,14 +2907,14 @@
       <c r="D66" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="2">
-        <v>1.96</v>
-      </c>
-      <c r="F66" s="2">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E66" s="3">
+        <v>1.9600000000000011</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.32666666666666683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -2928,14 +2927,14 @@
       <c r="D67" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E67" s="2">
-        <v>1.96</v>
-      </c>
-      <c r="F67" s="2">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E67" s="3">
+        <v>1.9600000000000011</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0.32666666666666683</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -2948,14 +2947,14 @@
       <c r="D68" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E68" s="2">
-        <v>1.96</v>
-      </c>
-      <c r="F68" s="2">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E68" s="3">
+        <v>1.9600000000000011</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0.32666666666666683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -2968,14 +2967,14 @@
       <c r="D69" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E69" s="2">
-        <v>1.96</v>
-      </c>
-      <c r="F69" s="2">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E69" s="3">
+        <v>1.9600000000000011</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.32666666666666683</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -2988,14 +2987,14 @@
       <c r="D70" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E70" s="2">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="F70" s="2">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E70" s="3">
+        <v>4.6400000000000006</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0.24421052631578949</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -3008,14 +3007,14 @@
       <c r="D71" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="F71" s="2">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E71" s="3">
+        <v>2.8400000000000021</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0.2366666666666668</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -3028,14 +3027,14 @@
       <c r="D72" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E72" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="F72" s="2">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E72" s="3">
+        <v>3.299999999999998</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.19411764705882351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -3048,14 +3047,14 @@
       <c r="D73" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="F73" s="2">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E73" s="3">
+        <v>3.299999999999998</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.18333333333333321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -3068,14 +3067,14 @@
       <c r="D74" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E74" s="2">
-        <v>3.57</v>
-      </c>
-      <c r="F74" s="2">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E74" s="3">
+        <v>3.5700000000000012</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.16227272727272729</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -3088,14 +3087,14 @@
       <c r="D75" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E75" s="2">
-        <v>2.895</v>
-      </c>
-      <c r="F75" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E75" s="3">
+        <v>2.8950000000000018</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.12062500000000009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -3108,14 +3107,14 @@
       <c r="D76" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E76" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="F76" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E76" s="3">
+        <v>2.8400000000000021</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.1136000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -3128,14 +3127,14 @@
       <c r="D77" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E77" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="F77" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E77" s="3">
+        <v>2.8400000000000021</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.1136000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -3148,14 +3147,14 @@
       <c r="D78" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E78" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="F78" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E78" s="3">
+        <v>2.8400000000000021</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.1136000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -3168,14 +3167,14 @@
       <c r="D79" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E79" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="F79" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E79" s="3">
+        <v>2.8400000000000021</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0.1136000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -3188,14 +3187,14 @@
       <c r="D80" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E80" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="F80" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E80" s="3">
+        <v>2.8400000000000021</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.1136000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -3208,14 +3207,14 @@
       <c r="D81" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E81" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="F81" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E81" s="3">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="F81" s="3">
+        <v>8.0952380952380984E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -3228,14 +3227,14 @@
       <c r="D82" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E82" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F82" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E82" s="3">
+        <v>6.9999999999995843E-2</v>
+      </c>
+      <c r="F82" s="3">
+        <v>4.9999999999997026E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -3248,14 +3247,14 @@
       <c r="D83" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E83" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F83" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E83" s="3">
+        <v>6.9999999999995843E-2</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4.9999999999997026E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -3268,14 +3267,14 @@
       <c r="D84" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="3">
         <v>0</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -3288,14 +3287,14 @@
       <c r="D85" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="3">
         <v>0</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -3308,14 +3307,14 @@
       <c r="D86" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="3">
         <v>0</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -3328,14 +3327,14 @@
       <c r="D87" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="3">
         <v>0</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -3348,14 +3347,14 @@
       <c r="D88" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="3">
         <v>0</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -3368,14 +3367,14 @@
       <c r="D89" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="3">
         <v>0</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -3388,14 +3387,14 @@
       <c r="D90" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="3">
         <v>0</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -3408,14 +3407,14 @@
       <c r="D91" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -3428,14 +3427,14 @@
       <c r="D92" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="3">
         <v>0</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -3448,14 +3447,14 @@
       <c r="D93" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="3">
         <v>0</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -3468,14 +3467,14 @@
       <c r="D94" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -3488,14 +3487,14 @@
       <c r="D95" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="3">
         <v>0</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -3508,14 +3507,14 @@
       <c r="D96" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="3">
         <v>0</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -3528,14 +3527,14 @@
       <c r="D97" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="3">
         <v>0</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -3548,14 +3547,14 @@
       <c r="D98" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="3">
         <v>0</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -3568,14 +3567,14 @@
       <c r="D99" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E99" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="F99" s="2">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E99" s="3">
+        <v>-0.29999999999999799</v>
+      </c>
+      <c r="F99" s="3">
+        <v>-1.1538461538461459E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -3588,14 +3587,14 @@
       <c r="D100" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E100" s="2">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="F100" s="2">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E100" s="3">
+        <v>-1.1400000000000039</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-6.000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -3608,14 +3607,14 @@
       <c r="D101" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E101" s="2">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="F101" s="2">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E101" s="3">
+        <v>-1.1400000000000039</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-6.000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -3628,14 +3627,14 @@
       <c r="D102" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E102" s="2">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="F102" s="2">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E102" s="3">
+        <v>-1.1400000000000039</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-6.000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -3648,14 +3647,14 @@
       <c r="D103" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E103" s="2">
-        <v>-0.83</v>
-      </c>
-      <c r="F103" s="2">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E103" s="3">
+        <v>-0.83000000000000274</v>
+      </c>
+      <c r="F103" s="3">
+        <v>-6.916666666666689E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -3668,14 +3667,14 @@
       <c r="D104" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E104" s="2">
-        <v>-1.94</v>
-      </c>
-      <c r="F104" s="2">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E104" s="3">
+        <v>-1.9400000000000011</v>
+      </c>
+      <c r="F104" s="3">
+        <v>-8.8181818181818236E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -3688,14 +3687,14 @@
       <c r="D105" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E105" s="2">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="F105" s="2">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E105" s="3">
+        <v>-1.1400000000000039</v>
+      </c>
+      <c r="F105" s="3">
+        <v>-0.11400000000000041</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -3708,34 +3707,34 @@
       <c r="D106" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="2">
-        <v>-2.032</v>
-      </c>
-      <c r="F106" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E106" s="3">
+        <v>-2.0319999999999978</v>
+      </c>
+      <c r="F106" s="3">
+        <v>-0.12699999999999989</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E107" s="2">
-        <v>-2.54</v>
-      </c>
-      <c r="F107" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="E107" s="3">
+        <v>-2.0319999999999978</v>
+      </c>
+      <c r="F107" s="3">
+        <v>-0.12699999999999989</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -3743,59 +3742,59 @@
         <v>14</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E108" s="2">
-        <v>-2.032</v>
-      </c>
-      <c r="F108" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="E108" s="3">
+        <v>-2.0319999999999978</v>
+      </c>
+      <c r="F108" s="3">
+        <v>-0.12699999999999989</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E109" s="2">
-        <v>-2.54</v>
-      </c>
-      <c r="F109" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="E109" s="3">
+        <v>-2.0319999999999978</v>
+      </c>
+      <c r="F109" s="3">
+        <v>-0.12699999999999989</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E110" s="2">
-        <v>-2.54</v>
-      </c>
-      <c r="F110" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="E110" s="3">
+        <v>-2.0319999999999978</v>
+      </c>
+      <c r="F110" s="3">
+        <v>-0.12699999999999989</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -3803,19 +3802,19 @@
         <v>14</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E111" s="2">
-        <v>-2.032</v>
-      </c>
-      <c r="F111" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="E111" s="3">
+        <v>-2.0319999999999978</v>
+      </c>
+      <c r="F111" s="3">
+        <v>-0.12699999999999989</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>110</v>
       </c>
@@ -3823,19 +3822,19 @@
         <v>14</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E112" s="2">
-        <v>-2.032</v>
-      </c>
-      <c r="F112" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="E112" s="3">
+        <v>-2.0319999999999978</v>
+      </c>
+      <c r="F112" s="3">
+        <v>-0.12699999999999989</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -3843,79 +3842,79 @@
         <v>14</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E113" s="2">
-        <v>-2.032</v>
-      </c>
-      <c r="F113" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="E113" s="3">
+        <v>-2.0319999999999978</v>
+      </c>
+      <c r="F113" s="3">
+        <v>-0.12699999999999989</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E114" s="2">
-        <v>-2.54</v>
-      </c>
-      <c r="F114" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="E114" s="3">
+        <v>-2.0319999999999978</v>
+      </c>
+      <c r="F114" s="3">
+        <v>-0.12699999999999989</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E115" s="2">
-        <v>-2.032</v>
-      </c>
-      <c r="F115" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="E115" s="3">
+        <v>-2.5400000000000058</v>
+      </c>
+      <c r="F115" s="3">
+        <v>-0.12700000000000031</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E116" s="2">
-        <v>-2.032</v>
-      </c>
-      <c r="F116" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="E116" s="3">
+        <v>-2.5400000000000058</v>
+      </c>
+      <c r="F116" s="3">
+        <v>-0.12700000000000031</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>115</v>
       </c>
@@ -3923,59 +3922,59 @@
         <v>6</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E117" s="2">
-        <v>-2.54</v>
-      </c>
-      <c r="F117" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="E117" s="3">
+        <v>-2.5400000000000058</v>
+      </c>
+      <c r="F117" s="3">
+        <v>-0.12700000000000031</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E118" s="2">
-        <v>-2.032</v>
-      </c>
-      <c r="F118" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="E118" s="3">
+        <v>-2.5400000000000058</v>
+      </c>
+      <c r="F118" s="3">
+        <v>-0.12700000000000031</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E119" s="2">
-        <v>-2.032</v>
-      </c>
-      <c r="F119" s="2">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="E119" s="3">
+        <v>-2.5400000000000058</v>
+      </c>
+      <c r="F119" s="3">
+        <v>-0.12700000000000031</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>118</v>
       </c>
@@ -3988,14 +3987,14 @@
       <c r="D120" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E120" s="2">
-        <v>-1.4</v>
-      </c>
-      <c r="F120" s="2">
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E120" s="3">
+        <v>-1.4000000000000019</v>
+      </c>
+      <c r="F120" s="3">
+        <v>-0.14000000000000021</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>119</v>
       </c>
@@ -4008,14 +4007,14 @@
       <c r="D121" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="3">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="F121" s="2">
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F121" s="3">
+        <v>-0.14357142857142849</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>120</v>
       </c>
@@ -4028,14 +4027,14 @@
       <c r="D122" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E122" s="2">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="F122" s="2">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E122" s="3">
+        <v>-4.5999999999999961</v>
+      </c>
+      <c r="F122" s="3">
+        <v>-0.15333333333333321</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>121</v>
       </c>
@@ -4048,14 +4047,14 @@
       <c r="D123" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E123" s="2">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="F123" s="2">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E123" s="3">
+        <v>-4.5999999999999961</v>
+      </c>
+      <c r="F123" s="3">
+        <v>-0.15333333333333321</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>122</v>
       </c>
@@ -4068,14 +4067,14 @@
       <c r="D124" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E124" s="2">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="F124" s="2">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E124" s="3">
+        <v>-4.5999999999999961</v>
+      </c>
+      <c r="F124" s="3">
+        <v>-0.15333333333333321</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -4088,14 +4087,14 @@
       <c r="D125" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E125" s="2">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="F125" s="2">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E125" s="3">
+        <v>-4.5999999999999961</v>
+      </c>
+      <c r="F125" s="3">
+        <v>-0.15333333333333321</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>124</v>
       </c>
@@ -4108,14 +4107,14 @@
       <c r="D126" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E126" s="2">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="F126" s="2">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E126" s="3">
+        <v>-4.5999999999999961</v>
+      </c>
+      <c r="F126" s="3">
+        <v>-0.15333333333333321</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>125</v>
       </c>
@@ -4128,14 +4127,14 @@
       <c r="D127" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E127" s="2">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="F127" s="2">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E127" s="3">
+        <v>-4.5999999999999961</v>
+      </c>
+      <c r="F127" s="3">
+        <v>-0.15333333333333321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>126</v>
       </c>
@@ -4148,14 +4147,14 @@
       <c r="D128" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E128" s="2">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="F128" s="2">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E128" s="3">
+        <v>-4.5999999999999961</v>
+      </c>
+      <c r="F128" s="3">
+        <v>-0.15333333333333321</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -4168,14 +4167,14 @@
       <c r="D129" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E129" s="2">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="F129" s="2">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E129" s="3">
+        <v>-4.5999999999999961</v>
+      </c>
+      <c r="F129" s="3">
+        <v>-0.15333333333333321</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>128</v>
       </c>
@@ -4188,14 +4187,14 @@
       <c r="D130" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E130" s="2">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="F130" s="2">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E130" s="3">
+        <v>-4.099999999999997</v>
+      </c>
+      <c r="F130" s="3">
+        <v>-0.1576923076923076</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -4208,14 +4207,14 @@
       <c r="D131" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E131" s="2">
-        <v>-4.3049999999999997</v>
-      </c>
-      <c r="F131" s="2">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E131" s="3">
+        <v>-4.3049999999999971</v>
+      </c>
+      <c r="F131" s="3">
+        <v>-0.16557692307692301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>130</v>
       </c>
@@ -4228,14 +4227,14 @@
       <c r="D132" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E132" s="2">
-        <v>-4.3049999999999997</v>
-      </c>
-      <c r="F132" s="2">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E132" s="3">
+        <v>-4.3049999999999971</v>
+      </c>
+      <c r="F132" s="3">
+        <v>-0.16557692307692301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>131</v>
       </c>
@@ -4248,14 +4247,14 @@
       <c r="D133" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E133" s="2">
-        <v>-4.3049999999999997</v>
-      </c>
-      <c r="F133" s="2">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E133" s="3">
+        <v>-4.3049999999999971</v>
+      </c>
+      <c r="F133" s="3">
+        <v>-0.16557692307692301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>132</v>
       </c>
@@ -4268,14 +4267,14 @@
       <c r="D134" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E134" s="2">
-        <v>-4.3049999999999997</v>
-      </c>
-      <c r="F134" s="2">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E134" s="3">
+        <v>-4.3049999999999971</v>
+      </c>
+      <c r="F134" s="3">
+        <v>-0.16557692307692301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>133</v>
       </c>
@@ -4288,14 +4287,14 @@
       <c r="D135" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E135" s="2">
-        <v>-4.3049999999999997</v>
-      </c>
-      <c r="F135" s="2">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E135" s="3">
+        <v>-4.3049999999999971</v>
+      </c>
+      <c r="F135" s="3">
+        <v>-0.16557692307692301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>134</v>
       </c>
@@ -4308,14 +4307,14 @@
       <c r="D136" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E136" s="2">
-        <v>-4.3049999999999997</v>
-      </c>
-      <c r="F136" s="2">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E136" s="3">
+        <v>-4.3049999999999971</v>
+      </c>
+      <c r="F136" s="3">
+        <v>-0.16557692307692301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>135</v>
       </c>
@@ -4328,14 +4327,14 @@
       <c r="D137" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E137" s="2">
-        <v>-4.3049999999999997</v>
-      </c>
-      <c r="F137" s="2">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E137" s="3">
+        <v>-4.3049999999999971</v>
+      </c>
+      <c r="F137" s="3">
+        <v>-0.16557692307692301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>136</v>
       </c>
@@ -4348,14 +4347,14 @@
       <c r="D138" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E138" s="2">
-        <v>-2.0299999999999998</v>
-      </c>
-      <c r="F138" s="2">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E138" s="3">
+        <v>-2.0300000000000038</v>
+      </c>
+      <c r="F138" s="3">
+        <v>-0.16916666666666699</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>137</v>
       </c>
@@ -4368,14 +4367,14 @@
       <c r="D139" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E139" s="2">
-        <v>-4.4050000000000002</v>
-      </c>
-      <c r="F139" s="2">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E139" s="3">
+        <v>-4.4050000000000011</v>
+      </c>
+      <c r="F139" s="3">
+        <v>-0.18354166666666669</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>138</v>
       </c>
@@ -4388,14 +4387,14 @@
       <c r="D140" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E140" s="2">
-        <v>-4.4050000000000002</v>
-      </c>
-      <c r="F140" s="2">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E140" s="3">
+        <v>-4.4050000000000011</v>
+      </c>
+      <c r="F140" s="3">
+        <v>-0.18354166666666669</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>139</v>
       </c>
@@ -4408,14 +4407,14 @@
       <c r="D141" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E141" s="2">
-        <v>-1.94</v>
-      </c>
-      <c r="F141" s="2">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E141" s="3">
+        <v>-1.9400000000000011</v>
+      </c>
+      <c r="F141" s="3">
+        <v>-0.19400000000000009</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>140</v>
       </c>
@@ -4428,14 +4427,14 @@
       <c r="D142" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="3">
         <v>-3.15</v>
       </c>
-      <c r="F142" s="2">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F142" s="3">
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>141</v>
       </c>
@@ -4448,14 +4447,14 @@
       <c r="D143" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="3">
         <v>-3.15</v>
       </c>
-      <c r="F143" s="2">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F143" s="3">
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>142</v>
       </c>
@@ -4468,14 +4467,14 @@
       <c r="D144" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="3">
         <v>-3.15</v>
       </c>
-      <c r="F144" s="2">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F144" s="3">
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>143</v>
       </c>
@@ -4488,14 +4487,14 @@
       <c r="D145" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="3">
         <v>-3.15</v>
       </c>
-      <c r="F145" s="2">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F145" s="3">
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>144</v>
       </c>
@@ -4508,14 +4507,14 @@
       <c r="D146" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="3">
         <v>-3.15</v>
       </c>
-      <c r="F146" s="2">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F146" s="3">
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>145</v>
       </c>
@@ -4528,14 +4527,14 @@
       <c r="D147" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="3">
         <v>-3.15</v>
       </c>
-      <c r="F147" s="2">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F147" s="3">
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>146</v>
       </c>
@@ -4548,14 +4547,14 @@
       <c r="D148" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="3">
         <v>-3.15</v>
       </c>
-      <c r="F148" s="2">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F148" s="3">
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>147</v>
       </c>
@@ -4568,14 +4567,14 @@
       <c r="D149" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="3">
         <v>-3.15</v>
       </c>
-      <c r="F149" s="2">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F149" s="3">
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>148</v>
       </c>
@@ -4588,14 +4587,14 @@
       <c r="D150" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="3">
         <v>-2.3170000000000002</v>
       </c>
-      <c r="F150" s="2">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F150" s="3">
+        <v>-0.25744444444444448</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>149</v>
       </c>
@@ -4608,14 +4607,14 @@
       <c r="D151" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E151" s="2">
-        <v>-4.3049999999999997</v>
-      </c>
-      <c r="F151" s="2">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E151" s="3">
+        <v>-4.3049999999999971</v>
+      </c>
+      <c r="F151" s="3">
+        <v>-0.26906249999999982</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>150</v>
       </c>
@@ -4628,14 +4627,14 @@
       <c r="D152" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E152" s="2">
-        <v>-5.0599999999999996</v>
-      </c>
-      <c r="F152" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E152" s="3">
+        <v>-5.0599999999999943</v>
+      </c>
+      <c r="F152" s="3">
+        <v>-0.2976470588235291</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>151</v>
       </c>
@@ -4648,14 +4647,14 @@
       <c r="D153" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E153" s="2">
-        <v>-5.0599999999999996</v>
-      </c>
-      <c r="F153" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E153" s="3">
+        <v>-5.0599999999999943</v>
+      </c>
+      <c r="F153" s="3">
+        <v>-0.2976470588235291</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>152</v>
       </c>
@@ -4668,14 +4667,14 @@
       <c r="D154" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E154" s="2">
-        <v>-5.0599999999999996</v>
-      </c>
-      <c r="F154" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E154" s="3">
+        <v>-5.0599999999999943</v>
+      </c>
+      <c r="F154" s="3">
+        <v>-0.2976470588235291</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>153</v>
       </c>
@@ -4688,14 +4687,14 @@
       <c r="D155" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E155" s="2">
-        <v>-5.0599999999999996</v>
-      </c>
-      <c r="F155" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E155" s="3">
+        <v>-5.0599999999999943</v>
+      </c>
+      <c r="F155" s="3">
+        <v>-0.2976470588235291</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -4708,14 +4707,14 @@
       <c r="D156" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E156" s="2">
-        <v>-5.0599999999999996</v>
-      </c>
-      <c r="F156" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E156" s="3">
+        <v>-5.0599999999999943</v>
+      </c>
+      <c r="F156" s="3">
+        <v>-0.2976470588235291</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -4728,14 +4727,14 @@
       <c r="D157" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E157" s="2">
-        <v>-5.0599999999999996</v>
-      </c>
-      <c r="F157" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E157" s="3">
+        <v>-5.0599999999999943</v>
+      </c>
+      <c r="F157" s="3">
+        <v>-0.2976470588235291</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -4748,14 +4747,14 @@
       <c r="D158" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E158" s="2">
-        <v>-5.0599999999999996</v>
-      </c>
-      <c r="F158" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E158" s="3">
+        <v>-5.0599999999999943</v>
+      </c>
+      <c r="F158" s="3">
+        <v>-0.2976470588235291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -4768,14 +4767,14 @@
       <c r="D159" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E159" s="2">
-        <v>-5.0599999999999996</v>
-      </c>
-      <c r="F159" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E159" s="3">
+        <v>-5.0599999999999943</v>
+      </c>
+      <c r="F159" s="3">
+        <v>-0.2976470588235291</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -4788,734 +4787,734 @@
       <c r="D160" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E160" s="2">
-        <v>-8.5050000000000008</v>
-      </c>
-      <c r="F160" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E160" s="3">
+        <v>-8.504999999999999</v>
+      </c>
+      <c r="F160" s="3">
+        <v>-0.30375000000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>159</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E161" s="2">
-        <v>-9.23</v>
-      </c>
-      <c r="F161" s="2">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="E161" s="3">
+        <v>-1.5460000000000009</v>
+      </c>
+      <c r="F161" s="3">
+        <v>-0.30920000000000031</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>160</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E162" s="2">
-        <v>-9.23</v>
-      </c>
-      <c r="F162" s="2">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="E162" s="3">
+        <v>-1.5460000000000009</v>
+      </c>
+      <c r="F162" s="3">
+        <v>-0.30920000000000031</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>161</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E163" s="2">
-        <v>-9.23</v>
-      </c>
-      <c r="F163" s="2">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="E163" s="3">
+        <v>-1.5460000000000009</v>
+      </c>
+      <c r="F163" s="3">
+        <v>-0.30920000000000031</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>162</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>330</v>
+        <v>217</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E164" s="2">
-        <v>-9.23</v>
-      </c>
-      <c r="F164" s="2">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="E164" s="3">
+        <v>-1.5460000000000009</v>
+      </c>
+      <c r="F164" s="3">
+        <v>-0.30920000000000031</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>163</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E165" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="F165" s="2">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="E165" s="3">
+        <v>-1.5460000000000009</v>
+      </c>
+      <c r="F165" s="3">
+        <v>-0.30920000000000031</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>164</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E166" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="F166" s="2">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="E166" s="3">
+        <v>-1.5460000000000009</v>
+      </c>
+      <c r="F166" s="3">
+        <v>-0.30920000000000031</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>165</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E167" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="F167" s="2">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+      <c r="E167" s="3">
+        <v>-1.5460000000000009</v>
+      </c>
+      <c r="F167" s="3">
+        <v>-0.30920000000000031</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>166</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E168" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="F168" s="2">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="E168" s="3">
+        <v>-1.5460000000000009</v>
+      </c>
+      <c r="F168" s="3">
+        <v>-0.30920000000000031</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>167</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>366</v>
+        <v>295</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E169" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="F169" s="2">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="E169" s="3">
+        <v>-1.5460000000000009</v>
+      </c>
+      <c r="F169" s="3">
+        <v>-0.30920000000000031</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>168</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E170" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="F170" s="2">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="E170" s="3">
+        <v>-9.230000000000004</v>
+      </c>
+      <c r="F170" s="3">
+        <v>-0.32964285714285729</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>169</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>381</v>
+        <v>167</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E171" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="F171" s="2">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="E171" s="3">
+        <v>-9.230000000000004</v>
+      </c>
+      <c r="F171" s="3">
+        <v>-0.32964285714285729</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>170</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>353</v>
+        <v>263</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E172" s="2">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="F172" s="2">
-        <v>-0.46</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="E172" s="3">
+        <v>-9.230000000000004</v>
+      </c>
+      <c r="F172" s="3">
+        <v>-0.32964285714285729</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>171</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>179</v>
+        <v>330</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E173" s="2">
-        <v>-6.8</v>
-      </c>
-      <c r="F173" s="2">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="E173" s="3">
+        <v>-9.230000000000004</v>
+      </c>
+      <c r="F173" s="3">
+        <v>-0.32964285714285729</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>172</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E174" s="2">
-        <v>-11.76</v>
-      </c>
-      <c r="F174" s="2">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="E174" s="3">
+        <v>-7.5000000000000018</v>
+      </c>
+      <c r="F174" s="3">
+        <v>-0.34090909090909099</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>173</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E175" s="2">
-        <v>-9.23</v>
-      </c>
-      <c r="F175" s="2">
-        <v>-0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="E175" s="3">
+        <v>-7.5000000000000018</v>
+      </c>
+      <c r="F175" s="3">
+        <v>-0.34090909090909099</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>174</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E176" s="2">
-        <v>-9.23</v>
-      </c>
-      <c r="F176" s="2">
-        <v>-0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="E176" s="3">
+        <v>-7.5000000000000018</v>
+      </c>
+      <c r="F176" s="3">
+        <v>-0.34090909090909099</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>175</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E177" s="2">
-        <v>-7.2</v>
-      </c>
-      <c r="F177" s="2">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+      <c r="E177" s="3">
+        <v>-7.5000000000000018</v>
+      </c>
+      <c r="F177" s="3">
+        <v>-0.34090909090909099</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>176</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>103</v>
+        <v>366</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E178" s="2">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="F178" s="2">
-        <v>-0.68</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="E178" s="3">
+        <v>-7.5000000000000018</v>
+      </c>
+      <c r="F178" s="3">
+        <v>-0.34090909090909099</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>177</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E179" s="2">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="F179" s="2">
-        <v>-0.68</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="E179" s="3">
+        <v>-7.5000000000000018</v>
+      </c>
+      <c r="F179" s="3">
+        <v>-0.35714285714285721</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>178</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>87</v>
+        <v>381</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E180" s="2">
-        <v>-11.117000000000001</v>
-      </c>
-      <c r="F180" s="2">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="E180" s="3">
+        <v>-7.5000000000000018</v>
+      </c>
+      <c r="F180" s="3">
+        <v>-0.35714285714285721</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E181" s="2">
-        <v>-11.117000000000001</v>
-      </c>
-      <c r="F181" s="2">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+      <c r="E181" s="3">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="F181" s="3">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>180</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E182" s="2">
-        <v>-11.117000000000001</v>
-      </c>
-      <c r="F182" s="2">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="E182" s="3">
+        <v>-6.8000000000000016</v>
+      </c>
+      <c r="F182" s="3">
+        <v>-0.52307692307692322</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>181</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E183" s="2">
-        <v>-11.117000000000001</v>
-      </c>
-      <c r="F183" s="2">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="E183" s="3">
+        <v>-11.76</v>
+      </c>
+      <c r="F183" s="3">
+        <v>-0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>182</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E184" s="2">
-        <v>-11.117000000000001</v>
-      </c>
-      <c r="F184" s="2">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="E184" s="3">
+        <v>-9.230000000000004</v>
+      </c>
+      <c r="F184" s="3">
+        <v>-0.57687500000000025</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>183</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>291</v>
+        <v>167</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E185" s="2">
-        <v>-11.117000000000001</v>
-      </c>
-      <c r="F185" s="2">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="E185" s="3">
+        <v>-9.230000000000004</v>
+      </c>
+      <c r="F185" s="3">
+        <v>-0.57687500000000025</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>184</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E186" s="2">
-        <v>-4.04</v>
-      </c>
-      <c r="F186" s="2">
-        <v>-0.81</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="E186" s="3">
+        <v>-7.1999999999999993</v>
+      </c>
+      <c r="F186" s="3">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>185</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E187" s="2">
-        <v>-4.04</v>
-      </c>
-      <c r="F187" s="2">
-        <v>-0.81</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="E187" s="3">
+        <v>-8.7999999999999936</v>
+      </c>
+      <c r="F187" s="3">
+        <v>-0.67692307692307641</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>186</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E188" s="2">
-        <v>-4.1440000000000001</v>
-      </c>
-      <c r="F188" s="2">
-        <v>-0.83</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+      <c r="E188" s="3">
+        <v>-8.7999999999999936</v>
+      </c>
+      <c r="F188" s="3">
+        <v>-0.67692307692307641</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>187</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E189" s="2">
-        <v>-4.1440000000000001</v>
-      </c>
-      <c r="F189" s="2">
-        <v>-0.83</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="E189" s="3">
+        <v>-11.11699999999999</v>
+      </c>
+      <c r="F189" s="3">
+        <v>-0.74113333333333287</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>188</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E190" s="2">
-        <v>-4.1440000000000001</v>
-      </c>
-      <c r="F190" s="2">
-        <v>-0.83</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="E190" s="3">
+        <v>-11.11699999999999</v>
+      </c>
+      <c r="F190" s="3">
+        <v>-0.74113333333333287</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>189</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E191" s="2">
-        <v>-4.1440000000000001</v>
-      </c>
-      <c r="F191" s="2">
-        <v>-0.83</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="E191" s="3">
+        <v>-11.11699999999999</v>
+      </c>
+      <c r="F191" s="3">
+        <v>-0.74113333333333287</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>190</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E192" s="2">
-        <v>-4.1440000000000001</v>
-      </c>
-      <c r="F192" s="2">
-        <v>-0.83</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="E192" s="3">
+        <v>-11.11699999999999</v>
+      </c>
+      <c r="F192" s="3">
+        <v>-0.74113333333333287</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>191</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E193" s="2">
-        <v>-4.1440000000000001</v>
-      </c>
-      <c r="F193" s="2">
-        <v>-0.83</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="E193" s="3">
+        <v>-11.11699999999999</v>
+      </c>
+      <c r="F193" s="3">
+        <v>-0.74113333333333287</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>192</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E194" s="2">
-        <v>-4.1440000000000001</v>
-      </c>
-      <c r="F194" s="2">
-        <v>-0.83</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="E194" s="3">
+        <v>-11.11699999999999</v>
+      </c>
+      <c r="F194" s="3">
+        <v>-0.74113333333333287</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>193</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E195" s="2">
-        <v>-4.1440000000000001</v>
-      </c>
-      <c r="F195" s="2">
-        <v>-0.83</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="E195" s="3">
+        <v>-4.0399999999999991</v>
+      </c>
+      <c r="F195" s="3">
+        <v>-0.80799999999999983</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>194</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E196" s="2">
-        <v>-4.1440000000000001</v>
-      </c>
-      <c r="F196" s="2">
-        <v>-0.83</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="E196" s="3">
+        <v>-4.0399999999999991</v>
+      </c>
+      <c r="F196" s="3">
+        <v>-0.80799999999999983</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>195</v>
       </c>
@@ -5528,14 +5527,14 @@
       <c r="D197" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197" s="3">
         <v>-13.1</v>
       </c>
-      <c r="F197" s="2">
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F197" s="3">
+        <v>-0.93571428571428583</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>196</v>
       </c>
@@ -5548,14 +5547,14 @@
       <c r="D198" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="3">
         <v>-13.1</v>
       </c>
-      <c r="F198" s="2">
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F198" s="3">
+        <v>-0.93571428571428583</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>197</v>
       </c>
@@ -5568,14 +5567,14 @@
       <c r="D199" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="3">
         <v>-13.1</v>
       </c>
-      <c r="F199" s="2">
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F199" s="3">
+        <v>-0.93571428571428583</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>198</v>
       </c>
@@ -5588,14 +5587,14 @@
       <c r="D200" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E200" s="2">
+      <c r="E200" s="3">
         <v>-13.1</v>
       </c>
-      <c r="F200" s="2">
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F200" s="3">
+        <v>-0.93571428571428583</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>199</v>
       </c>
@@ -5608,14 +5607,14 @@
       <c r="D201" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="3">
         <v>-13.1</v>
       </c>
-      <c r="F201" s="2">
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F201" s="3">
+        <v>-0.93571428571428583</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>200</v>
       </c>
@@ -5628,14 +5627,14 @@
       <c r="D202" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="3">
         <v>-13.1</v>
       </c>
-      <c r="F202" s="2">
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F202" s="3">
+        <v>-0.93571428571428583</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>201</v>
       </c>
@@ -5648,14 +5647,14 @@
       <c r="D203" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="3">
         <v>-13.1</v>
       </c>
-      <c r="F203" s="2">
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F203" s="3">
+        <v>-0.93571428571428583</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>202</v>
       </c>
@@ -5668,14 +5667,14 @@
       <c r="D204" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="3">
         <v>-13.1</v>
       </c>
-      <c r="F204" s="2">
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F204" s="3">
+        <v>-0.93571428571428583</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>203</v>
       </c>
@@ -5688,14 +5687,14 @@
       <c r="D205" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E205" s="2">
-        <v>-3.05</v>
-      </c>
-      <c r="F205" s="2">
-        <v>-1.02</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E205" s="3">
+        <v>-3.049999999999994</v>
+      </c>
+      <c r="F205" s="3">
+        <v>-1.0166666666666651</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>204</v>
       </c>
@@ -5708,14 +5707,14 @@
       <c r="D206" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E206" s="2">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="F206" s="2">
-        <v>-1.03</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E206" s="3">
+        <v>-4.099999999999997</v>
+      </c>
+      <c r="F206" s="3">
+        <v>-1.024999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>205</v>
       </c>
@@ -5728,14 +5727,14 @@
       <c r="D207" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E207" s="2">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="F207" s="2">
-        <v>-1.03</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E207" s="3">
+        <v>-4.099999999999997</v>
+      </c>
+      <c r="F207" s="3">
+        <v>-1.024999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>206</v>
       </c>
@@ -5748,14 +5747,14 @@
       <c r="D208" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E208" s="2">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="F208" s="2">
-        <v>-1.03</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E208" s="3">
+        <v>-4.099999999999997</v>
+      </c>
+      <c r="F208" s="3">
+        <v>-1.024999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>207</v>
       </c>
@@ -5768,14 +5767,14 @@
       <c r="D209" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E209" s="2">
-        <v>-4.3</v>
-      </c>
-      <c r="F209" s="2">
-        <v>-1.08</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E209" s="3">
+        <v>-4.299999999999998</v>
+      </c>
+      <c r="F209" s="3">
+        <v>-1.075</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>208</v>
       </c>
@@ -5788,14 +5787,14 @@
       <c r="D210" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210" s="3">
         <v>-2.3170000000000002</v>
       </c>
-      <c r="F210" s="2">
-        <v>-1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F210" s="3">
+        <v>-1.1585000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>209</v>
       </c>
@@ -5808,14 +5807,14 @@
       <c r="D211" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E211" s="2">
-        <v>-7.29</v>
-      </c>
-      <c r="F211" s="2">
-        <v>-1.22</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E211" s="3">
+        <v>-7.2900000000000036</v>
+      </c>
+      <c r="F211" s="3">
+        <v>-1.215000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>210</v>
       </c>
@@ -5828,14 +5827,14 @@
       <c r="D212" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E212" s="2">
-        <v>-7.29</v>
-      </c>
-      <c r="F212" s="2">
-        <v>-1.22</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E212" s="3">
+        <v>-7.2900000000000036</v>
+      </c>
+      <c r="F212" s="3">
+        <v>-1.215000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>211</v>
       </c>
@@ -5848,54 +5847,54 @@
       <c r="D213" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E213" s="2">
-        <v>-11.117000000000001</v>
-      </c>
-      <c r="F213" s="2">
-        <v>-1.39</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E213" s="3">
+        <v>-11.11699999999999</v>
+      </c>
+      <c r="F213" s="3">
+        <v>-1.389624999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>212</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E214" s="2">
-        <v>-1.4</v>
-      </c>
-      <c r="F214" s="2">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="E214" s="3">
+        <v>-9.7999999999999954</v>
+      </c>
+      <c r="F214" s="3">
+        <v>-1.399999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>213</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E215" s="2">
-        <v>-1.4</v>
-      </c>
-      <c r="F215" s="2">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="E215" s="3">
+        <v>-9.7999999999999954</v>
+      </c>
+      <c r="F215" s="3">
+        <v>-1.399999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>214</v>
       </c>
@@ -5903,19 +5902,19 @@
         <v>20</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E216" s="2">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="F216" s="2">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="E216" s="3">
+        <v>-9.7999999999999954</v>
+      </c>
+      <c r="F216" s="3">
+        <v>-1.399999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>215</v>
       </c>
@@ -5923,19 +5922,19 @@
         <v>20</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E217" s="2">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="F217" s="2">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="E217" s="3">
+        <v>-9.7999999999999954</v>
+      </c>
+      <c r="F217" s="3">
+        <v>-1.399999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>216</v>
       </c>
@@ -5943,19 +5942,19 @@
         <v>20</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E218" s="2">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="F218" s="2">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="E218" s="3">
+        <v>-9.7999999999999954</v>
+      </c>
+      <c r="F218" s="3">
+        <v>-1.399999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>217</v>
       </c>
@@ -5963,19 +5962,19 @@
         <v>20</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E219" s="2">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="F219" s="2">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="E219" s="3">
+        <v>-9.7999999999999954</v>
+      </c>
+      <c r="F219" s="3">
+        <v>-1.399999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>218</v>
       </c>
@@ -5983,39 +5982,39 @@
         <v>20</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E220" s="2">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="F220" s="2">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="E220" s="3">
+        <v>-9.7999999999999954</v>
+      </c>
+      <c r="F220" s="3">
+        <v>-1.399999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E221" s="2">
-        <v>-1.4</v>
-      </c>
-      <c r="F221" s="2">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="E221" s="3">
+        <v>-9.7999999999999954</v>
+      </c>
+      <c r="F221" s="3">
+        <v>-1.399999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>220</v>
       </c>
@@ -6023,79 +6022,79 @@
         <v>20</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E222" s="2">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="F222" s="2">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="E222" s="3">
+        <v>-9.7999999999999954</v>
+      </c>
+      <c r="F222" s="3">
+        <v>-1.399999999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>221</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E223" s="2">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="F223" s="2">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E223" s="3">
+        <v>-1.4000000000000019</v>
+      </c>
+      <c r="F223" s="3">
+        <v>-1.4000000000000019</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>222</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>305</v>
+        <v>98</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E224" s="2">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="F224" s="2">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="E224" s="3">
+        <v>-1.4000000000000019</v>
+      </c>
+      <c r="F224" s="3">
+        <v>-1.4000000000000019</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>223</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E225" s="2">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="F225" s="2">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="E225" s="3">
+        <v>-1.4000000000000019</v>
+      </c>
+      <c r="F225" s="3">
+        <v>-1.4000000000000019</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>224</v>
       </c>
@@ -6108,14 +6107,14 @@
       <c r="D226" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E226" s="2">
-        <v>-8.5050000000000008</v>
-      </c>
-      <c r="F226" s="2">
-        <v>-1.42</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E226" s="3">
+        <v>-8.504999999999999</v>
+      </c>
+      <c r="F226" s="3">
+        <v>-1.4175</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>225</v>
       </c>
@@ -6128,14 +6127,14 @@
       <c r="D227" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E227" s="2">
-        <v>-8.5050000000000008</v>
-      </c>
-      <c r="F227" s="2">
-        <v>-1.42</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E227" s="3">
+        <v>-8.504999999999999</v>
+      </c>
+      <c r="F227" s="3">
+        <v>-1.4175</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>226</v>
       </c>
@@ -6148,14 +6147,14 @@
       <c r="D228" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E228" s="2">
-        <v>-8.5050000000000008</v>
-      </c>
-      <c r="F228" s="2">
-        <v>-1.42</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E228" s="3">
+        <v>-8.504999999999999</v>
+      </c>
+      <c r="F228" s="3">
+        <v>-1.4175</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>227</v>
       </c>
@@ -6168,14 +6167,14 @@
       <c r="D229" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E229" s="2">
-        <v>-8.5050000000000008</v>
-      </c>
-      <c r="F229" s="2">
-        <v>-1.42</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E229" s="3">
+        <v>-8.504999999999999</v>
+      </c>
+      <c r="F229" s="3">
+        <v>-1.4175</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>228</v>
       </c>
@@ -6188,14 +6187,14 @@
       <c r="D230" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E230" s="2">
-        <v>-1.7</v>
-      </c>
-      <c r="F230" s="2">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E230" s="3">
+        <v>-1.7000000000000011</v>
+      </c>
+      <c r="F230" s="3">
+        <v>-1.7000000000000011</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>229</v>
       </c>
@@ -6208,14 +6207,14 @@
       <c r="D231" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E231" s="2">
-        <v>-7.2</v>
-      </c>
-      <c r="F231" s="2">
+      <c r="E231" s="3">
+        <v>-7.2000000000000011</v>
+      </c>
+      <c r="F231" s="3">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>230</v>
       </c>
@@ -6228,34 +6227,34 @@
       <c r="D232" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E232" s="2">
+      <c r="E232" s="3">
         <v>-1.94</v>
       </c>
-      <c r="F232" s="2">
+      <c r="F232" s="3">
         <v>-1.94</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>231</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E233" s="2">
-        <v>-4.266</v>
-      </c>
-      <c r="F233" s="2">
-        <v>-2.13</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="E233" s="3">
+        <v>-10.8</v>
+      </c>
+      <c r="F233" s="3">
+        <v>-2.16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>232</v>
       </c>
@@ -6263,39 +6262,39 @@
         <v>13</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E234" s="2">
+        <v>352</v>
+      </c>
+      <c r="E234" s="3">
         <v>-10.8</v>
       </c>
-      <c r="F234" s="2">
+      <c r="F234" s="3">
         <v>-2.16</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>233</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E235" s="2">
-        <v>-10.8</v>
-      </c>
-      <c r="F235" s="2">
-        <v>-2.16</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="E235" s="3">
+        <v>-4.4050000000000011</v>
+      </c>
+      <c r="F235" s="3">
+        <v>-2.202500000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>234</v>
       </c>
@@ -6303,539 +6302,206 @@
         <v>11</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E236" s="2">
-        <v>-4.4050000000000002</v>
-      </c>
-      <c r="F236" s="2">
-        <v>-2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="E236" s="3">
+        <v>-4.4050000000000011</v>
+      </c>
+      <c r="F236" s="3">
+        <v>-2.202500000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>235</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E237" s="2">
-        <v>-4.4050000000000002</v>
-      </c>
-      <c r="F237" s="2">
-        <v>-2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="E237" s="3">
+        <v>-8.2000000000000028</v>
+      </c>
+      <c r="F237" s="3">
+        <v>-2.7333333333333338</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>236</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E238" s="2">
-        <v>-8.1999999999999993</v>
-      </c>
-      <c r="F238" s="2">
-        <v>-2.73</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+      <c r="E238" s="3">
+        <v>-5.7000000000000011</v>
+      </c>
+      <c r="F238" s="3">
+        <v>-2.850000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>237</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E239" s="2">
-        <v>-5.7</v>
-      </c>
-      <c r="F239" s="2">
-        <v>-2.85</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="E239" s="3">
+        <v>-6.8640000000000008</v>
+      </c>
+      <c r="F239" s="3">
+        <v>-3.4319999999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>238</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>258</v>
+        <v>357</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E240" s="2">
-        <v>-21.8</v>
-      </c>
-      <c r="F240" s="2">
-        <v>-3.11</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+      <c r="E240" s="3">
+        <v>-9.89</v>
+      </c>
+      <c r="F240" s="3">
+        <v>-4.9450000000000003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>239</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E241" s="2">
-        <v>-21.8</v>
-      </c>
-      <c r="F241" s="2">
-        <v>-3.11</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A242" s="3">
-        <v>240</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E242" s="2">
-        <v>-21.8</v>
-      </c>
-      <c r="F242" s="2">
-        <v>-3.11</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A243" s="3">
-        <v>241</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E243" s="2">
-        <v>-21.8</v>
-      </c>
-      <c r="F243" s="2">
-        <v>-3.11</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A244" s="3">
-        <v>242</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E244" s="2">
-        <v>-21.8</v>
-      </c>
-      <c r="F244" s="2">
-        <v>-3.11</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A245" s="3">
-        <v>243</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E245" s="2">
-        <v>-13.2</v>
-      </c>
-      <c r="F245" s="2">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A246" s="3">
-        <v>244</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E246" s="2">
-        <v>-13.2</v>
-      </c>
-      <c r="F246" s="2">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A247" s="3">
-        <v>245</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E247" s="2">
-        <v>-13.2</v>
-      </c>
-      <c r="F247" s="2">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A248" s="3">
-        <v>246</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E248" s="2">
-        <v>-20.504999999999999</v>
-      </c>
-      <c r="F248" s="2">
-        <v>-3.42</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A249" s="3">
-        <v>247</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E249" s="2">
-        <v>-20.504999999999999</v>
-      </c>
-      <c r="F249" s="2">
-        <v>-3.42</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A250" s="3">
-        <v>248</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E250" s="2">
-        <v>-20.504999999999999</v>
-      </c>
-      <c r="F250" s="2">
-        <v>-3.42</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A251" s="3">
-        <v>249</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E251" s="2">
-        <v>-20.504999999999999</v>
-      </c>
-      <c r="F251" s="2">
-        <v>-3.42</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A252" s="3">
-        <v>250</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E252" s="2">
-        <v>-7.3049999999999997</v>
-      </c>
-      <c r="F252" s="2">
-        <v>-3.65</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A253" s="3">
-        <v>251</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E253" s="2">
-        <v>-7.3049999999999997</v>
-      </c>
-      <c r="F253" s="2">
-        <v>-3.65</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A254" s="3">
-        <v>252</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E254" s="2">
-        <v>-7.5339999999999998</v>
-      </c>
-      <c r="F254" s="2">
-        <v>-3.77</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A255" s="3">
-        <v>253</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E255" s="2">
-        <v>-15.634</v>
-      </c>
-      <c r="F255" s="2">
-        <v>-3.91</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A256" s="3">
-        <v>254</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E256" s="2">
-        <v>-8.1</v>
-      </c>
-      <c r="F256" s="2">
-        <v>-4.05</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A257" s="3">
-        <v>255</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E257" s="2">
-        <v>-12.6</v>
-      </c>
-      <c r="F257" s="2">
-        <v>-4.2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A258" s="3">
-        <v>256</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E258" s="2">
-        <v>-9.89</v>
-      </c>
-      <c r="F258" s="2">
-        <v>-4.95</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A259" s="3">
-        <v>257</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E259" s="2">
-        <v>-5.5</v>
-      </c>
-      <c r="F259" s="2">
-        <v>-5.5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A260" s="3">
-        <v>258</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D260" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E260" s="2">
-        <v>-6.3</v>
-      </c>
-      <c r="F260" s="2">
-        <v>-6.3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A261" s="3">
-        <v>259</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E261" s="2">
-        <v>-25.17</v>
-      </c>
-      <c r="F261" s="2">
-        <v>-8.39</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A262" s="3">
-        <v>260</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E262" s="2">
-        <v>-25.17</v>
-      </c>
-      <c r="F262" s="2">
-        <v>-8.39</v>
-      </c>
+      <c r="E241" s="3">
+        <v>-6.2999999999999989</v>
+      </c>
+      <c r="F241" s="3">
+        <v>-6.2999999999999989</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+    </row>
+    <row r="257" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+    </row>
+    <row r="260" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+    </row>
+    <row r="261" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+    </row>
+    <row r="262" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="B3:F262">
+    <sortCondition descending="1" ref="F3:F262"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6845,8 +6511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -6855,10 +6521,9 @@
     <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="3"/>
+    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -6993,7 +6658,7 @@
         <v>163</v>
       </c>
       <c r="E7" s="3">
-        <v>41.010000000000012</v>
+        <v>41.01</v>
       </c>
       <c r="F7" s="3">
         <v>8.1999999999999993</v>
@@ -7014,7 +6679,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="3">
-        <v>70.443999999999988</v>
+        <v>70.444000000000003</v>
       </c>
       <c r="F8" s="3">
         <v>7.83</v>
@@ -7035,7 +6700,7 @@
         <v>116</v>
       </c>
       <c r="E9" s="3">
-        <v>70.443999999999988</v>
+        <v>70.444000000000003</v>
       </c>
       <c r="F9" s="3">
         <v>7.83</v>
@@ -7056,7 +6721,7 @@
         <v>146</v>
       </c>
       <c r="E10" s="3">
-        <v>70.443999999999988</v>
+        <v>70.444000000000003</v>
       </c>
       <c r="F10" s="3">
         <v>7.83</v>
@@ -7077,7 +6742,7 @@
         <v>153</v>
       </c>
       <c r="E11" s="3">
-        <v>70.443999999999988</v>
+        <v>70.444000000000003</v>
       </c>
       <c r="F11" s="3">
         <v>7.83</v>
@@ -7098,7 +6763,7 @@
         <v>365</v>
       </c>
       <c r="E12" s="3">
-        <v>70.443999999999988</v>
+        <v>70.444000000000003</v>
       </c>
       <c r="F12" s="3">
         <v>7.83</v>
@@ -7245,7 +6910,7 @@
         <v>261</v>
       </c>
       <c r="E19" s="3">
-        <v>5.7999999999999989</v>
+        <v>5.8</v>
       </c>
       <c r="F19" s="3">
         <v>5.8</v>
@@ -7266,7 +6931,7 @@
         <v>131</v>
       </c>
       <c r="E20" s="3">
-        <v>40.20000000000001</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F20" s="3">
         <v>5.74</v>
@@ -7287,7 +6952,7 @@
         <v>174</v>
       </c>
       <c r="E21" s="3">
-        <v>40.20000000000001</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F21" s="3">
         <v>5.74</v>
@@ -7308,7 +6973,7 @@
         <v>176</v>
       </c>
       <c r="E22" s="3">
-        <v>40.20000000000001</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F22" s="3">
         <v>5.74</v>
@@ -7329,7 +6994,7 @@
         <v>247</v>
       </c>
       <c r="E23" s="3">
-        <v>40.20000000000001</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F23" s="3">
         <v>5.74</v>
@@ -7350,7 +7015,7 @@
         <v>259</v>
       </c>
       <c r="E24" s="3">
-        <v>40.20000000000001</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F24" s="3">
         <v>5.74</v>
@@ -7371,7 +7036,7 @@
         <v>294</v>
       </c>
       <c r="E25" s="3">
-        <v>40.20000000000001</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F25" s="3">
         <v>5.74</v>
@@ -7392,7 +7057,7 @@
         <v>307</v>
       </c>
       <c r="E26" s="3">
-        <v>40.20000000000001</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F26" s="3">
         <v>5.74</v>
@@ -7413,7 +7078,7 @@
         <v>308</v>
       </c>
       <c r="E27" s="3">
-        <v>40.20000000000001</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F27" s="3">
         <v>5.74</v>
@@ -7434,7 +7099,7 @@
         <v>372</v>
       </c>
       <c r="E28" s="3">
-        <v>40.20000000000001</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F28" s="3">
         <v>5.74</v>
@@ -7791,7 +7456,7 @@
         <v>359</v>
       </c>
       <c r="E45" s="3">
-        <v>32.739999999999988</v>
+        <v>32.74</v>
       </c>
       <c r="F45" s="3">
         <v>4.09</v>
@@ -7833,7 +7498,7 @@
         <v>306</v>
       </c>
       <c r="E47" s="3">
-        <v>58.260000000000012</v>
+        <v>58.26</v>
       </c>
       <c r="F47" s="3">
         <v>3.64</v>
@@ -8085,7 +7750,7 @@
         <v>109</v>
       </c>
       <c r="E59" s="3">
-        <v>47.359999999999992</v>
+        <v>47.36</v>
       </c>
       <c r="F59" s="3">
         <v>2.96</v>
@@ -8127,7 +7792,7 @@
         <v>83</v>
       </c>
       <c r="E61" s="3">
-        <v>36.849999999999987</v>
+        <v>36.85</v>
       </c>
       <c r="F61" s="3">
         <v>2.63</v>
@@ -8148,7 +7813,7 @@
         <v>106</v>
       </c>
       <c r="E62" s="3">
-        <v>36.849999999999987</v>
+        <v>36.85</v>
       </c>
       <c r="F62" s="3">
         <v>2.63</v>
@@ -8169,7 +7834,7 @@
         <v>149</v>
       </c>
       <c r="E63" s="3">
-        <v>36.849999999999987</v>
+        <v>36.85</v>
       </c>
       <c r="F63" s="3">
         <v>2.63</v>
@@ -8190,7 +7855,7 @@
         <v>287</v>
       </c>
       <c r="E64" s="3">
-        <v>36.849999999999987</v>
+        <v>36.85</v>
       </c>
       <c r="F64" s="3">
         <v>2.63</v>
@@ -8211,7 +7876,7 @@
         <v>302</v>
       </c>
       <c r="E65" s="3">
-        <v>36.849999999999987</v>
+        <v>36.85</v>
       </c>
       <c r="F65" s="3">
         <v>2.63</v>
@@ -8232,7 +7897,7 @@
         <v>311</v>
       </c>
       <c r="E66" s="3">
-        <v>36.849999999999987</v>
+        <v>36.85</v>
       </c>
       <c r="F66" s="3">
         <v>2.63</v>
@@ -8253,7 +7918,7 @@
         <v>326</v>
       </c>
       <c r="E67" s="3">
-        <v>36.849999999999987</v>
+        <v>36.85</v>
       </c>
       <c r="F67" s="3">
         <v>2.63</v>
@@ -8274,7 +7939,7 @@
         <v>356</v>
       </c>
       <c r="E68" s="3">
-        <v>36.849999999999987</v>
+        <v>36.85</v>
       </c>
       <c r="F68" s="3">
         <v>2.63</v>
@@ -8358,7 +8023,7 @@
         <v>214</v>
       </c>
       <c r="E72" s="3">
-        <v>6.9500000000000064</v>
+        <v>6.95</v>
       </c>
       <c r="F72" s="3">
         <v>2.3199999999999998</v>
@@ -9051,7 +8716,7 @@
         <v>207</v>
       </c>
       <c r="E105" s="3">
-        <v>6.1999999999999957</v>
+        <v>6.2</v>
       </c>
       <c r="F105" s="3">
         <v>1.03</v>
@@ -9177,7 +8842,7 @@
         <v>172</v>
       </c>
       <c r="E111" s="3">
-        <v>3.4000000000000021</v>
+        <v>3.4</v>
       </c>
       <c r="F111" s="3">
         <v>0.85</v>
@@ -9198,7 +8863,7 @@
         <v>184</v>
       </c>
       <c r="E112" s="3">
-        <v>3.4000000000000021</v>
+        <v>3.4</v>
       </c>
       <c r="F112" s="3">
         <v>0.85</v>
@@ -9219,7 +8884,7 @@
         <v>313</v>
       </c>
       <c r="E113" s="3">
-        <v>3.4000000000000021</v>
+        <v>3.4</v>
       </c>
       <c r="F113" s="3">
         <v>0.85</v>
@@ -9282,7 +8947,7 @@
         <v>56</v>
       </c>
       <c r="E116" s="3">
-        <v>4.4600000000000009</v>
+        <v>4.46</v>
       </c>
       <c r="F116" s="3">
         <v>0.74</v>
@@ -9303,7 +8968,7 @@
         <v>124</v>
       </c>
       <c r="E117" s="3">
-        <v>4.4600000000000009</v>
+        <v>4.46</v>
       </c>
       <c r="F117" s="3">
         <v>0.74</v>
@@ -9324,7 +8989,7 @@
         <v>151</v>
       </c>
       <c r="E118" s="3">
-        <v>4.4600000000000009</v>
+        <v>4.46</v>
       </c>
       <c r="F118" s="3">
         <v>0.74</v>
@@ -9345,7 +9010,7 @@
         <v>290</v>
       </c>
       <c r="E119" s="3">
-        <v>4.4600000000000009</v>
+        <v>4.46</v>
       </c>
       <c r="F119" s="3">
         <v>0.74</v>
@@ -9366,7 +9031,7 @@
         <v>316</v>
       </c>
       <c r="E120" s="3">
-        <v>4.4600000000000009</v>
+        <v>4.46</v>
       </c>
       <c r="F120" s="3">
         <v>0.74</v>
@@ -9450,7 +9115,7 @@
         <v>336</v>
       </c>
       <c r="E124" s="3">
-        <v>6.1999999999999957</v>
+        <v>6.2</v>
       </c>
       <c r="F124" s="3">
         <v>0.69</v>
@@ -9492,7 +9157,7 @@
         <v>255</v>
       </c>
       <c r="E126" s="3">
-        <v>7.8000000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="F126" s="3">
         <v>0.65</v>
@@ -9534,7 +9199,7 @@
         <v>161</v>
       </c>
       <c r="E128" s="3">
-        <v>5.5599999999999987</v>
+        <v>5.56</v>
       </c>
       <c r="F128" s="3">
         <v>0.56000000000000005</v>
@@ -9555,7 +9220,7 @@
         <v>341</v>
       </c>
       <c r="E129" s="3">
-        <v>6.1999999999999957</v>
+        <v>6.2</v>
       </c>
       <c r="F129" s="3">
         <v>0.48</v>
@@ -9576,7 +9241,7 @@
         <v>43</v>
       </c>
       <c r="E130" s="3">
-        <v>12.900000000000009</v>
+        <v>12.9</v>
       </c>
       <c r="F130" s="3">
         <v>0.43</v>
@@ -9597,7 +9262,7 @@
         <v>61</v>
       </c>
       <c r="E131" s="3">
-        <v>12.900000000000009</v>
+        <v>12.9</v>
       </c>
       <c r="F131" s="3">
         <v>0.43</v>
@@ -9618,7 +9283,7 @@
         <v>137</v>
       </c>
       <c r="E132" s="3">
-        <v>12.900000000000009</v>
+        <v>12.9</v>
       </c>
       <c r="F132" s="3">
         <v>0.43</v>
@@ -9639,7 +9304,7 @@
         <v>144</v>
       </c>
       <c r="E133" s="3">
-        <v>12.900000000000009</v>
+        <v>12.9</v>
       </c>
       <c r="F133" s="3">
         <v>0.43</v>
@@ -9660,7 +9325,7 @@
         <v>281</v>
       </c>
       <c r="E134" s="3">
-        <v>12.900000000000009</v>
+        <v>12.9</v>
       </c>
       <c r="F134" s="3">
         <v>0.43</v>
@@ -9681,7 +9346,7 @@
         <v>322</v>
       </c>
       <c r="E135" s="3">
-        <v>12.900000000000009</v>
+        <v>12.9</v>
       </c>
       <c r="F135" s="3">
         <v>0.43</v>
@@ -9702,7 +9367,7 @@
         <v>364</v>
       </c>
       <c r="E136" s="3">
-        <v>12.900000000000009</v>
+        <v>12.9</v>
       </c>
       <c r="F136" s="3">
         <v>0.43</v>
@@ -9723,7 +9388,7 @@
         <v>376</v>
       </c>
       <c r="E137" s="3">
-        <v>12.900000000000009</v>
+        <v>12.9</v>
       </c>
       <c r="F137" s="3">
         <v>0.43</v>
@@ -9744,7 +9409,7 @@
         <v>66</v>
       </c>
       <c r="E138" s="3">
-        <v>7.1699999999999937</v>
+        <v>7.17</v>
       </c>
       <c r="F138" s="3">
         <v>0.42</v>
@@ -9765,7 +9430,7 @@
         <v>95</v>
       </c>
       <c r="E139" s="3">
-        <v>7.1699999999999937</v>
+        <v>7.17</v>
       </c>
       <c r="F139" s="3">
         <v>0.42</v>
@@ -9786,7 +9451,7 @@
         <v>187</v>
       </c>
       <c r="E140" s="3">
-        <v>7.1699999999999937</v>
+        <v>7.17</v>
       </c>
       <c r="F140" s="3">
         <v>0.42</v>
@@ -9807,7 +9472,7 @@
         <v>197</v>
       </c>
       <c r="E141" s="3">
-        <v>7.1699999999999937</v>
+        <v>7.17</v>
       </c>
       <c r="F141" s="3">
         <v>0.42</v>
@@ -9828,7 +9493,7 @@
         <v>199</v>
       </c>
       <c r="E142" s="3">
-        <v>7.1699999999999937</v>
+        <v>7.17</v>
       </c>
       <c r="F142" s="3">
         <v>0.42</v>
@@ -9849,7 +9514,7 @@
         <v>22</v>
       </c>
       <c r="E143" s="3">
-        <v>7.1699999999999937</v>
+        <v>7.17</v>
       </c>
       <c r="F143" s="3">
         <v>0.42</v>
@@ -9870,7 +9535,7 @@
         <v>29</v>
       </c>
       <c r="E144" s="3">
-        <v>6.1999999999999957</v>
+        <v>6.2</v>
       </c>
       <c r="F144" s="3">
         <v>0.39</v>
@@ -9891,7 +9556,7 @@
         <v>86</v>
       </c>
       <c r="E145" s="3">
-        <v>6.1999999999999957</v>
+        <v>6.2</v>
       </c>
       <c r="F145" s="3">
         <v>0.39</v>
@@ -9912,7 +9577,7 @@
         <v>163</v>
       </c>
       <c r="E146" s="3">
-        <v>6.1999999999999957</v>
+        <v>6.2</v>
       </c>
       <c r="F146" s="3">
         <v>0.39</v>
@@ -9933,7 +9598,7 @@
         <v>228</v>
       </c>
       <c r="E147" s="3">
-        <v>6.1999999999999957</v>
+        <v>6.2</v>
       </c>
       <c r="F147" s="3">
         <v>0.39</v>
@@ -9954,7 +9619,7 @@
         <v>304</v>
       </c>
       <c r="E148" s="3">
-        <v>6.1999999999999957</v>
+        <v>6.2</v>
       </c>
       <c r="F148" s="3">
         <v>0.39</v>
@@ -9975,7 +9640,7 @@
         <v>139</v>
       </c>
       <c r="E149" s="3">
-        <v>0.73399999999999954</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="F149" s="3">
         <v>0.37</v>
@@ -10017,7 +9682,7 @@
         <v>81</v>
       </c>
       <c r="E151" s="3">
-        <v>5.5599999999999987</v>
+        <v>5.56</v>
       </c>
       <c r="F151" s="3">
         <v>0.25</v>
@@ -10038,7 +9703,7 @@
         <v>107</v>
       </c>
       <c r="E152" s="3">
-        <v>0.96000000000000085</v>
+        <v>0.96</v>
       </c>
       <c r="F152" s="3">
         <v>0.19</v>
@@ -10059,7 +9724,7 @@
         <v>266</v>
       </c>
       <c r="E153" s="3">
-        <v>0.96000000000000085</v>
+        <v>0.96</v>
       </c>
       <c r="F153" s="3">
         <v>0.19</v>
@@ -10080,7 +9745,7 @@
         <v>52</v>
       </c>
       <c r="E154" s="3">
-        <v>2.4400000000000062</v>
+        <v>2.44</v>
       </c>
       <c r="F154" s="3">
         <v>0.14000000000000001</v>
@@ -10101,7 +9766,7 @@
         <v>54</v>
       </c>
       <c r="E155" s="3">
-        <v>2.4400000000000062</v>
+        <v>2.44</v>
       </c>
       <c r="F155" s="3">
         <v>0.14000000000000001</v>
@@ -10122,7 +9787,7 @@
         <v>68</v>
       </c>
       <c r="E156" s="3">
-        <v>2.4400000000000062</v>
+        <v>2.44</v>
       </c>
       <c r="F156" s="3">
         <v>0.14000000000000001</v>
@@ -10143,7 +9808,7 @@
         <v>186</v>
       </c>
       <c r="E157" s="3">
-        <v>2.4400000000000062</v>
+        <v>2.44</v>
       </c>
       <c r="F157" s="3">
         <v>0.14000000000000001</v>
@@ -10164,7 +9829,7 @@
         <v>262</v>
       </c>
       <c r="E158" s="3">
-        <v>2.4400000000000062</v>
+        <v>2.44</v>
       </c>
       <c r="F158" s="3">
         <v>0.14000000000000001</v>
@@ -10185,7 +9850,7 @@
         <v>44</v>
       </c>
       <c r="E159" s="3">
-        <v>2.4400000000000062</v>
+        <v>2.44</v>
       </c>
       <c r="F159" s="3">
         <v>0.14000000000000001</v>
@@ -10206,7 +9871,7 @@
         <v>344</v>
       </c>
       <c r="E160" s="3">
-        <v>2.4400000000000062</v>
+        <v>2.44</v>
       </c>
       <c r="F160" s="3">
         <v>0.14000000000000001</v>
@@ -10227,7 +9892,7 @@
         <v>150</v>
       </c>
       <c r="E161" s="3">
-        <v>2.4400000000000062</v>
+        <v>2.44</v>
       </c>
       <c r="F161" s="3">
         <v>0.14000000000000001</v>
@@ -10248,7 +9913,7 @@
         <v>161</v>
       </c>
       <c r="E162" s="3">
-        <v>3.4000000000000021</v>
+        <v>3.4</v>
       </c>
       <c r="F162" s="3">
         <v>0.13</v>
@@ -10269,7 +9934,7 @@
         <v>354</v>
       </c>
       <c r="E163" s="3">
-        <v>0.80000000000000071</v>
+        <v>0.8</v>
       </c>
       <c r="F163" s="3">
         <v>0.04</v>
@@ -10604,10 +10269,10 @@
       <c r="D179" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E179" s="3">
-        <v>0</v>
-      </c>
-      <c r="F179" s="3">
+      <c r="E179" s="5">
+        <v>-1.7763599999999999E-15</v>
+      </c>
+      <c r="F179" s="5">
         <v>0</v>
       </c>
       <c r="G179" s="2"/>
@@ -10625,10 +10290,10 @@
       <c r="D180" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E180" s="3">
-        <v>0</v>
-      </c>
-      <c r="F180" s="3">
+      <c r="E180" s="5">
+        <v>-1.7763599999999999E-15</v>
+      </c>
+      <c r="F180" s="5">
         <v>0</v>
       </c>
       <c r="G180" s="2"/>
@@ -10646,10 +10311,10 @@
       <c r="D181" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E181" s="3">
-        <v>0</v>
-      </c>
-      <c r="F181" s="3">
+      <c r="E181" s="5">
+        <v>-1.7763599999999999E-15</v>
+      </c>
+      <c r="F181" s="5">
         <v>0</v>
       </c>
       <c r="G181" s="2"/>
@@ -10667,10 +10332,10 @@
       <c r="D182" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E182" s="3">
-        <v>0</v>
-      </c>
-      <c r="F182" s="3">
+      <c r="E182" s="5">
+        <v>-1.7763599999999999E-15</v>
+      </c>
+      <c r="F182" s="5">
         <v>0</v>
       </c>
       <c r="G182" s="2"/>
@@ -10688,10 +10353,10 @@
       <c r="D183" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="E183" s="3">
-        <v>0</v>
-      </c>
-      <c r="F183" s="3">
+      <c r="E183" s="5">
+        <v>-1.7763599999999999E-15</v>
+      </c>
+      <c r="F183" s="5">
         <v>0</v>
       </c>
       <c r="G183" s="2"/>
@@ -10709,10 +10374,10 @@
       <c r="D184" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E184" s="3">
-        <v>0</v>
-      </c>
-      <c r="F184" s="3">
+      <c r="E184" s="5">
+        <v>-1.7763599999999999E-15</v>
+      </c>
+      <c r="F184" s="5">
         <v>0</v>
       </c>
       <c r="G184" s="2"/>
@@ -10730,10 +10395,10 @@
       <c r="D185" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E185" s="3">
-        <v>0</v>
-      </c>
-      <c r="F185" s="3">
+      <c r="E185" s="5">
+        <v>-1.7763599999999999E-15</v>
+      </c>
+      <c r="F185" s="5">
         <v>0</v>
       </c>
       <c r="G185" s="2"/>
@@ -10752,7 +10417,7 @@
         <v>337</v>
       </c>
       <c r="E186" s="3">
-        <v>-0.29999999999999799</v>
+        <v>-0.3</v>
       </c>
       <c r="F186" s="3">
         <v>-0.01</v>
@@ -10794,7 +10459,7 @@
         <v>257</v>
       </c>
       <c r="E188" s="3">
-        <v>-6.004999999999999</v>
+        <v>-6.0049999999999999</v>
       </c>
       <c r="F188" s="3">
         <v>-0.21</v>
@@ -10815,7 +10480,7 @@
         <v>39</v>
       </c>
       <c r="E189" s="3">
-        <v>-1.3399999999999981</v>
+        <v>-1.34</v>
       </c>
       <c r="F189" s="3">
         <v>-0.27</v>
@@ -10857,7 +10522,7 @@
         <v>26</v>
       </c>
       <c r="E191" s="3">
-        <v>-6.1400000000000041</v>
+        <v>-6.14</v>
       </c>
       <c r="F191" s="3">
         <v>-0.32</v>
@@ -10878,7 +10543,7 @@
         <v>92</v>
       </c>
       <c r="E192" s="3">
-        <v>-6.1400000000000041</v>
+        <v>-6.14</v>
       </c>
       <c r="F192" s="3">
         <v>-0.32</v>
@@ -10899,7 +10564,7 @@
         <v>113</v>
       </c>
       <c r="E193" s="3">
-        <v>-6.1400000000000041</v>
+        <v>-6.14</v>
       </c>
       <c r="F193" s="3">
         <v>-0.32</v>
@@ -10920,7 +10585,7 @@
         <v>346</v>
       </c>
       <c r="E194" s="3">
-        <v>-0.70000000000000107</v>
+        <v>-0.7</v>
       </c>
       <c r="F194" s="3">
         <v>-0.35</v>
@@ -10941,7 +10606,7 @@
         <v>71</v>
       </c>
       <c r="E195" s="3">
-        <v>-3.9000000000000021</v>
+        <v>-3.9</v>
       </c>
       <c r="F195" s="3">
         <v>-0.39</v>
@@ -10962,7 +10627,7 @@
         <v>313</v>
       </c>
       <c r="E196" s="3">
-        <v>-9.4050000000000011</v>
+        <v>-9.4049999999999994</v>
       </c>
       <c r="F196" s="3">
         <v>-0.39</v>
@@ -10983,7 +10648,7 @@
         <v>391</v>
       </c>
       <c r="E197" s="3">
-        <v>-9.4050000000000011</v>
+        <v>-9.4049999999999994</v>
       </c>
       <c r="F197" s="3">
         <v>-0.39</v>
@@ -11004,7 +10669,7 @@
         <v>58</v>
       </c>
       <c r="E198" s="3">
-        <v>-5.8300000000000027</v>
+        <v>-5.83</v>
       </c>
       <c r="F198" s="3">
         <v>-0.49</v>
@@ -11025,7 +10690,7 @@
         <v>33</v>
       </c>
       <c r="E199" s="3">
-        <v>-10.04000000000001</v>
+        <v>-10.039999999999999</v>
       </c>
       <c r="F199" s="3">
         <v>-0.5</v>
@@ -11046,7 +10711,7 @@
         <v>85</v>
       </c>
       <c r="E200" s="3">
-        <v>-10.04000000000001</v>
+        <v>-10.039999999999999</v>
       </c>
       <c r="F200" s="3">
         <v>-0.5</v>
@@ -11067,7 +10732,7 @@
         <v>114</v>
       </c>
       <c r="E201" s="3">
-        <v>-10.04000000000001</v>
+        <v>-10.039999999999999</v>
       </c>
       <c r="F201" s="3">
         <v>-0.5</v>
@@ -11088,7 +10753,7 @@
         <v>206</v>
       </c>
       <c r="E202" s="3">
-        <v>-10.04000000000001</v>
+        <v>-10.039999999999999</v>
       </c>
       <c r="F202" s="3">
         <v>-0.5</v>
@@ -11109,7 +10774,7 @@
         <v>256</v>
       </c>
       <c r="E203" s="3">
-        <v>-10.04000000000001</v>
+        <v>-10.039999999999999</v>
       </c>
       <c r="F203" s="3">
         <v>-0.5</v>
@@ -11130,7 +10795,7 @@
         <v>180</v>
       </c>
       <c r="E204" s="3">
-        <v>-6.8000000000000016</v>
+        <v>-6.8</v>
       </c>
       <c r="F204" s="3">
         <v>-0.52</v>
@@ -11151,7 +10816,7 @@
         <v>93</v>
       </c>
       <c r="E205" s="3">
-        <v>-0.55999999999999872</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="F205" s="3">
         <v>-0.56000000000000005</v>
@@ -11172,7 +10837,7 @@
         <v>334</v>
       </c>
       <c r="E206" s="3">
-        <v>-0.55999999999999872</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="F206" s="3">
         <v>-0.56000000000000005</v>
@@ -11193,7 +10858,7 @@
         <v>340</v>
       </c>
       <c r="E207" s="3">
-        <v>-6.1400000000000041</v>
+        <v>-6.14</v>
       </c>
       <c r="F207" s="3">
         <v>-0.61</v>
@@ -11214,7 +10879,7 @@
         <v>233</v>
       </c>
       <c r="E208" s="3">
-        <v>-0.62999999999999989</v>
+        <v>-0.63</v>
       </c>
       <c r="F208" s="3">
         <v>-0.63</v>
@@ -11235,7 +10900,7 @@
         <v>73</v>
       </c>
       <c r="E209" s="3">
-        <v>-9.9300000000000033</v>
+        <v>-9.93</v>
       </c>
       <c r="F209" s="3">
         <v>-0.71</v>
@@ -11256,7 +10921,7 @@
         <v>269</v>
       </c>
       <c r="E210" s="3">
-        <v>-9.9300000000000033</v>
+        <v>-9.93</v>
       </c>
       <c r="F210" s="3">
         <v>-0.71</v>
@@ -11277,7 +10942,7 @@
         <v>88</v>
       </c>
       <c r="E211" s="3">
-        <v>-11.11699999999999</v>
+        <v>-11.117000000000001</v>
       </c>
       <c r="F211" s="3">
         <v>-0.74</v>
@@ -11298,7 +10963,7 @@
         <v>101</v>
       </c>
       <c r="E212" s="3">
-        <v>-11.11699999999999</v>
+        <v>-11.117000000000001</v>
       </c>
       <c r="F212" s="3">
         <v>-0.74</v>
@@ -11319,7 +10984,7 @@
         <v>102</v>
       </c>
       <c r="E213" s="3">
-        <v>-11.11699999999999</v>
+        <v>-11.117000000000001</v>
       </c>
       <c r="F213" s="3">
         <v>-0.74</v>
@@ -11340,7 +11005,7 @@
         <v>155</v>
       </c>
       <c r="E214" s="3">
-        <v>-11.11699999999999</v>
+        <v>-11.117000000000001</v>
       </c>
       <c r="F214" s="3">
         <v>-0.74</v>
@@ -11361,7 +11026,7 @@
         <v>204</v>
       </c>
       <c r="E215" s="3">
-        <v>-11.11699999999999</v>
+        <v>-11.117000000000001</v>
       </c>
       <c r="F215" s="3">
         <v>-0.74</v>
@@ -11382,7 +11047,7 @@
         <v>292</v>
       </c>
       <c r="E216" s="3">
-        <v>-11.11699999999999</v>
+        <v>-11.117000000000001</v>
       </c>
       <c r="F216" s="3">
         <v>-0.74</v>
@@ -11403,7 +11068,7 @@
         <v>170</v>
       </c>
       <c r="E217" s="3">
-        <v>-6.004999999999999</v>
+        <v>-6.0049999999999999</v>
       </c>
       <c r="F217" s="3">
         <v>-1</v>
@@ -11424,7 +11089,7 @@
         <v>273</v>
       </c>
       <c r="E218" s="3">
-        <v>-6.004999999999999</v>
+        <v>-6.0049999999999999</v>
       </c>
       <c r="F218" s="3">
         <v>-1</v>
@@ -11445,7 +11110,7 @@
         <v>309</v>
       </c>
       <c r="E219" s="3">
-        <v>-6.004999999999999</v>
+        <v>-6.0049999999999999</v>
       </c>
       <c r="F219" s="3">
         <v>-1</v>
@@ -11466,7 +11131,7 @@
         <v>343</v>
       </c>
       <c r="E220" s="3">
-        <v>-6.004999999999999</v>
+        <v>-6.0049999999999999</v>
       </c>
       <c r="F220" s="3">
         <v>-1</v>
@@ -11487,7 +11152,7 @@
         <v>104</v>
       </c>
       <c r="E221" s="3">
-        <v>-13.79999999999999</v>
+        <v>-13.8</v>
       </c>
       <c r="F221" s="3">
         <v>-1.06</v>
@@ -11508,7 +11173,7 @@
         <v>277</v>
       </c>
       <c r="E222" s="3">
-        <v>-13.79999999999999</v>
+        <v>-13.8</v>
       </c>
       <c r="F222" s="3">
         <v>-1.06</v>
@@ -11697,7 +11362,7 @@
         <v>245</v>
       </c>
       <c r="E231" s="3">
-        <v>-11.11699999999999</v>
+        <v>-11.117000000000001</v>
       </c>
       <c r="F231" s="3">
         <v>-1.39</v>
@@ -11760,7 +11425,7 @@
         <v>41</v>
       </c>
       <c r="E234" s="3">
-        <v>-3.9000000000000021</v>
+        <v>-3.9</v>
       </c>
       <c r="F234" s="3">
         <v>-3.9</v>
@@ -11781,7 +11446,7 @@
         <v>99</v>
       </c>
       <c r="E235" s="3">
-        <v>-3.9000000000000021</v>
+        <v>-3.9</v>
       </c>
       <c r="F235" s="3">
         <v>-3.9</v>
@@ -11802,7 +11467,7 @@
         <v>265</v>
       </c>
       <c r="E236" s="3">
-        <v>-3.9000000000000021</v>
+        <v>-3.9</v>
       </c>
       <c r="F236" s="3">
         <v>-3.9</v>
@@ -11844,7 +11509,7 @@
         <v>59</v>
       </c>
       <c r="E238" s="3">
-        <v>-9.4050000000000011</v>
+        <v>-9.4049999999999994</v>
       </c>
       <c r="F238" s="3">
         <v>-4.7</v>
@@ -11865,7 +11530,7 @@
         <v>135</v>
       </c>
       <c r="E239" s="3">
-        <v>-9.4050000000000011</v>
+        <v>-9.4049999999999994</v>
       </c>
       <c r="F239" s="3">
         <v>-4.7</v>
@@ -11907,7 +11572,7 @@
         <v>90</v>
       </c>
       <c r="E241" s="3">
-        <v>-8.7999999999999989</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="F241" s="3">
         <v>-8.8000000000000007</v>
@@ -11999,8 +11664,8 @@
       <c r="G262" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="C3:G262">
-    <sortCondition descending="1" ref="G3:G262"/>
+  <sortState ref="B3:F241">
+    <sortCondition descending="1" ref="F3:F241"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/Player Rankings-ordered.xlsx
+++ b/data/Player Rankings-ordered.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Unweighted" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="407">
   <si>
     <t>Team</t>
   </si>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t>Carcano</t>
-  </si>
-  <si>
-    <t>Gugliemo</t>
   </si>
   <si>
     <t>Hank</t>
@@ -1299,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1309,7 +1306,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1590,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1604,34 +1600,35 @@
     <col min="4" max="4" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="12.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1639,19 +1636,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>140</v>
+        <v>318</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="E3" s="3">
-        <v>13.7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3">
-        <v>6.85</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1662,10 +1659,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>319</v>
+        <v>384</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="E4" s="3">
         <v>6</v>
@@ -1679,19 +1676,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>385</v>
+        <v>224</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>386</v>
+        <v>225</v>
       </c>
       <c r="E5" s="3">
-        <v>6</v>
+        <v>9.9400000000000013</v>
       </c>
       <c r="F5" s="3">
-        <v>6</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1702,16 +1699,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>226</v>
+        <v>350</v>
       </c>
       <c r="E6" s="3">
         <v>9.9400000000000013</v>
       </c>
       <c r="F6" s="3">
-        <v>4.9700000000000006</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1719,19 +1716,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>351</v>
+        <v>122</v>
       </c>
       <c r="E7" s="3">
-        <v>9.9400000000000013</v>
+        <v>14.01</v>
       </c>
       <c r="F7" s="3">
-        <v>4.9700000000000006</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1742,16 +1739,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3">
         <v>14.01</v>
       </c>
       <c r="F8" s="3">
-        <v>4.6700000000000008</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1759,19 +1756,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3">
-        <v>14.01</v>
+        <v>12.1</v>
       </c>
       <c r="F9" s="3">
-        <v>4.6700000000000008</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1782,16 +1779,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="E10" s="3">
         <v>12.1</v>
       </c>
       <c r="F10" s="3">
-        <v>4.0333333333333332</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1799,19 +1796,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E11" s="3">
-        <v>12.1</v>
+        <v>14.6</v>
       </c>
       <c r="F11" s="3">
-        <v>4.0333333333333332</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1819,19 +1816,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>315</v>
+        <v>162</v>
       </c>
       <c r="E12" s="3">
-        <v>14.6</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="F12" s="3">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1842,16 +1839,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="E13" s="3">
-        <v>16.010000000000002</v>
+        <v>8.5999999999999979</v>
       </c>
       <c r="F13" s="3">
-        <v>3.202</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1859,19 +1856,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3">
-        <v>8.5999999999999979</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F14" s="3">
-        <v>2.8666666666666658</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1879,19 +1876,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>348</v>
       </c>
       <c r="E15" s="3">
-        <v>16.899999999999999</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3">
-        <v>2.816666666666666</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1899,19 +1896,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>347</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>349</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3">
-        <v>13</v>
+        <v>22.846</v>
       </c>
       <c r="F16" s="3">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1922,16 +1919,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E17" s="3">
         <v>22.846</v>
       </c>
       <c r="F17" s="3">
-        <v>2.5384444444444449</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1942,16 +1939,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E18" s="3">
         <v>22.846</v>
       </c>
       <c r="F18" s="3">
-        <v>2.5384444444444449</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1962,16 +1959,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E19" s="3">
         <v>22.846</v>
       </c>
       <c r="F19" s="3">
-        <v>2.5384444444444449</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1982,16 +1979,16 @@
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>153</v>
+        <v>364</v>
       </c>
       <c r="E20" s="3">
         <v>22.846</v>
       </c>
       <c r="F20" s="3">
-        <v>2.5384444444444449</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2002,16 +1999,16 @@
         <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>363</v>
+        <v>241</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>365</v>
+        <v>242</v>
       </c>
       <c r="E21" s="3">
-        <v>22.846</v>
+        <v>14.246</v>
       </c>
       <c r="F21" s="3">
-        <v>2.5384444444444449</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2019,19 +2016,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="E22" s="3">
-        <v>14.246</v>
+        <v>1.9400000000000011</v>
       </c>
       <c r="F22" s="3">
-        <v>2.374333333333333</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2042,16 +2039,16 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>91</v>
+        <v>331</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>93</v>
+        <v>333</v>
       </c>
       <c r="E23" s="3">
         <v>1.9400000000000011</v>
       </c>
       <c r="F23" s="3">
-        <v>1.9400000000000011</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2062,16 +2059,16 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>332</v>
+        <v>231</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>334</v>
+        <v>232</v>
       </c>
       <c r="E24" s="3">
-        <v>1.9400000000000011</v>
+        <v>1.87</v>
       </c>
       <c r="F24" s="3">
-        <v>1.9400000000000011</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2079,19 +2076,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="E25" s="3">
-        <v>1.87</v>
+        <v>6.8359999999999976</v>
       </c>
       <c r="F25" s="3">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2102,16 +2099,16 @@
         <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E26" s="3">
         <v>6.8359999999999976</v>
       </c>
       <c r="F26" s="3">
-        <v>1.708999999999999</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2131,7 +2128,7 @@
         <v>8.8359999999999985</v>
       </c>
       <c r="F27" s="3">
-        <v>1.4726666666666659</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2142,16 +2139,16 @@
         <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="E28" s="3">
         <v>23.26</v>
       </c>
       <c r="F28" s="3">
-        <v>1.4537500000000001</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2162,10 +2159,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E29" s="3">
         <v>8.6999999999999975</v>
@@ -2191,7 +2188,7 @@
         <v>22.36</v>
       </c>
       <c r="F30" s="3">
-        <v>1.3975</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2202,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E31" s="3">
         <v>10.24</v>
@@ -2271,7 +2268,7 @@
         <v>19.95999999999999</v>
       </c>
       <c r="F34" s="3">
-        <v>1.174117647058823</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2282,16 +2279,16 @@
         <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="E35" s="3">
         <v>19.95999999999999</v>
       </c>
       <c r="F35" s="3">
-        <v>1.174117647058823</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2302,16 +2299,16 @@
         <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E36" s="3">
         <v>19.95999999999999</v>
       </c>
       <c r="F36" s="3">
-        <v>1.174117647058823</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2322,16 +2319,16 @@
         <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="E37" s="3">
         <v>19.95999999999999</v>
       </c>
       <c r="F37" s="3">
-        <v>1.174117647058823</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2342,16 +2339,16 @@
         <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E38" s="3">
         <v>19.95999999999999</v>
       </c>
       <c r="F38" s="3">
-        <v>1.174117647058823</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2362,16 +2359,16 @@
         <v>15</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E39" s="3">
         <v>19.95999999999999</v>
       </c>
       <c r="F39" s="3">
-        <v>1.174117647058823</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2382,16 +2379,16 @@
         <v>15</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="E40" s="3">
         <v>19.95999999999999</v>
       </c>
       <c r="F40" s="3">
-        <v>1.174117647058823</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2402,10 +2399,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
@@ -2422,16 +2419,16 @@
         <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E42" s="3">
         <v>8.6999999999999975</v>
       </c>
       <c r="F42" s="3">
-        <v>0.96666666666666634</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2471,7 +2468,7 @@
         <v>3.6600000000000019</v>
       </c>
       <c r="F44" s="3">
-        <v>0.73200000000000043</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2491,7 +2488,7 @@
         <v>12.169999999999989</v>
       </c>
       <c r="F45" s="3">
-        <v>0.71588235294117619</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2511,7 +2508,7 @@
         <v>12.169999999999989</v>
       </c>
       <c r="F46" s="3">
-        <v>0.71588235294117619</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2522,16 +2519,16 @@
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E47" s="3">
         <v>12.169999999999989</v>
       </c>
       <c r="F47" s="3">
-        <v>0.71588235294117619</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2542,16 +2539,16 @@
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E48" s="3">
         <v>12.169999999999989</v>
       </c>
       <c r="F48" s="3">
-        <v>0.71588235294117619</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2562,16 +2559,16 @@
         <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="E49" s="3">
         <v>12.169999999999989</v>
       </c>
       <c r="F49" s="3">
-        <v>0.71588235294117619</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2582,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>22</v>
@@ -2591,7 +2588,7 @@
         <v>12.169999999999989</v>
       </c>
       <c r="F50" s="3">
-        <v>0.71588235294117619</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2602,16 +2599,16 @@
         <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E51" s="3">
         <v>8.6999999999999975</v>
       </c>
       <c r="F51" s="3">
-        <v>0.66923076923076907</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2631,7 +2628,7 @@
         <v>13.51</v>
       </c>
       <c r="F52" s="3">
-        <v>0.56291666666666673</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2642,16 +2639,16 @@
         <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="E53" s="3">
         <v>13.51</v>
       </c>
       <c r="F53" s="3">
-        <v>0.56291666666666673</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2662,16 +2659,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="E54" s="3">
         <v>6.7399999999999993</v>
       </c>
       <c r="F54" s="3">
-        <v>0.56166666666666665</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2691,7 +2688,7 @@
         <v>8.6999999999999975</v>
       </c>
       <c r="F55" s="3">
-        <v>0.54374999999999984</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2711,7 +2708,7 @@
         <v>8.6999999999999975</v>
       </c>
       <c r="F56" s="3">
-        <v>0.54374999999999984</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2722,16 +2719,16 @@
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E57" s="3">
         <v>8.6999999999999975</v>
       </c>
       <c r="F57" s="3">
-        <v>0.54374999999999984</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2742,16 +2739,16 @@
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E58" s="3">
         <v>8.6999999999999975</v>
       </c>
       <c r="F58" s="3">
-        <v>0.54374999999999984</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2762,16 +2759,16 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="E59" s="3">
         <v>8.6999999999999975</v>
       </c>
       <c r="F59" s="3">
-        <v>0.54374999999999984</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2782,16 +2779,16 @@
         <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="E60" s="3">
         <v>11.81</v>
       </c>
       <c r="F60" s="3">
-        <v>0.53681818181818197</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2811,7 +2808,7 @@
         <v>11.64</v>
       </c>
       <c r="F61" s="3">
-        <v>0.50608695652173918</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2831,7 +2828,7 @@
         <v>11.57</v>
       </c>
       <c r="F62" s="3">
-        <v>0.50304347826086959</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2842,16 +2839,16 @@
         <v>4</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="E63" s="3">
         <v>11.57</v>
       </c>
       <c r="F63" s="3">
-        <v>0.50304347826086959</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2862,16 +2859,16 @@
         <v>4</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E64" s="3">
         <v>9.9400000000000013</v>
       </c>
       <c r="F64" s="3">
-        <v>0.47333333333333338</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2891,7 +2888,7 @@
         <v>1.9600000000000011</v>
       </c>
       <c r="F65" s="3">
-        <v>0.32666666666666683</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2911,7 +2908,7 @@
         <v>1.9600000000000011</v>
       </c>
       <c r="F66" s="3">
-        <v>0.32666666666666683</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2922,16 +2919,16 @@
         <v>3</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E67" s="3">
         <v>1.9600000000000011</v>
       </c>
       <c r="F67" s="3">
-        <v>0.32666666666666683</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2942,16 +2939,16 @@
         <v>3</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="E68" s="3">
         <v>1.9600000000000011</v>
       </c>
       <c r="F68" s="3">
-        <v>0.32666666666666683</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2962,16 +2959,16 @@
         <v>3</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E69" s="3">
         <v>1.9600000000000011</v>
       </c>
       <c r="F69" s="3">
-        <v>0.32666666666666683</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2982,16 +2979,16 @@
         <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="E70" s="3">
         <v>4.6400000000000006</v>
       </c>
       <c r="F70" s="3">
-        <v>0.24421052631578949</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3002,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>39</v>
@@ -3011,7 +3008,7 @@
         <v>2.8400000000000021</v>
       </c>
       <c r="F71" s="3">
-        <v>0.2366666666666668</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3022,16 +3019,16 @@
         <v>13</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E72" s="3">
         <v>3.299999999999998</v>
       </c>
       <c r="F72" s="3">
-        <v>0.19411764705882351</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3051,7 +3048,7 @@
         <v>3.299999999999998</v>
       </c>
       <c r="F73" s="3">
-        <v>0.18333333333333321</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3062,16 +3059,16 @@
         <v>4</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="E74" s="3">
         <v>3.5700000000000012</v>
       </c>
       <c r="F74" s="3">
-        <v>0.16227272727272729</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3082,16 +3079,16 @@
         <v>18</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="E75" s="3">
         <v>2.8950000000000018</v>
       </c>
       <c r="F75" s="3">
-        <v>0.12062500000000009</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3111,7 +3108,7 @@
         <v>2.8400000000000021</v>
       </c>
       <c r="F76" s="3">
-        <v>0.1136000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3122,16 +3119,16 @@
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="E77" s="3">
         <v>2.8400000000000021</v>
       </c>
       <c r="F77" s="3">
-        <v>0.1136000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3142,16 +3139,16 @@
         <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="E78" s="3">
         <v>2.8400000000000021</v>
       </c>
       <c r="F78" s="3">
-        <v>0.1136000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3162,16 +3159,16 @@
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E79" s="3">
         <v>2.8400000000000021</v>
       </c>
       <c r="F79" s="3">
-        <v>0.1136000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3182,16 +3179,16 @@
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="E80" s="3">
         <v>2.8400000000000021</v>
       </c>
       <c r="F80" s="3">
-        <v>0.1136000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3202,16 +3199,16 @@
         <v>4</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E81" s="3">
         <v>1.7000000000000011</v>
       </c>
       <c r="F81" s="3">
-        <v>8.0952380952380984E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3231,7 +3228,7 @@
         <v>6.9999999999995843E-2</v>
       </c>
       <c r="F82" s="3">
-        <v>4.9999999999997026E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3242,16 +3239,16 @@
         <v>7</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E83" s="3">
         <v>6.9999999999995843E-2</v>
       </c>
       <c r="F83" s="3">
-        <v>4.9999999999997026E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3265,7 +3262,7 @@
         <v>34</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E84" s="3">
         <v>0</v>
@@ -3322,10 +3319,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="E87" s="3">
         <v>0</v>
@@ -3342,10 +3339,10 @@
         <v>12</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="E88" s="3">
         <v>0</v>
@@ -3362,10 +3359,10 @@
         <v>5</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3385,7 +3382,7 @@
         <v>94</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E90" s="3">
         <v>0</v>
@@ -3402,10 +3399,10 @@
         <v>5</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3422,10 +3419,10 @@
         <v>13</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="E92" s="3">
         <v>0</v>
@@ -3442,10 +3439,10 @@
         <v>11</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="E93" s="3">
         <v>0</v>
@@ -3462,10 +3459,10 @@
         <v>11</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3482,10 +3479,10 @@
         <v>12</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="E95" s="3">
         <v>0</v>
@@ -3502,10 +3499,10 @@
         <v>1</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3522,10 +3519,10 @@
         <v>11</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="E97" s="3">
         <v>0</v>
@@ -3542,10 +3539,10 @@
         <v>11</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="E98" s="3">
         <v>0</v>
@@ -3562,16 +3559,16 @@
         <v>16</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E99" s="3">
         <v>-0.29999999999999799</v>
       </c>
       <c r="F99" s="3">
-        <v>-1.1538461538461459E-2</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3591,7 +3588,7 @@
         <v>-1.1400000000000039</v>
       </c>
       <c r="F100" s="3">
-        <v>-6.000000000000022E-2</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3611,7 +3608,7 @@
         <v>-1.1400000000000039</v>
       </c>
       <c r="F101" s="3">
-        <v>-6.000000000000022E-2</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3631,7 +3628,7 @@
         <v>-1.1400000000000039</v>
       </c>
       <c r="F102" s="3">
-        <v>-6.000000000000022E-2</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3651,7 +3648,7 @@
         <v>-0.83000000000000274</v>
       </c>
       <c r="F103" s="3">
-        <v>-6.916666666666689E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3671,7 +3668,7 @@
         <v>-1.9400000000000011</v>
       </c>
       <c r="F104" s="3">
-        <v>-8.8181818181818236E-2</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3682,16 +3679,16 @@
         <v>6</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="E105" s="3">
         <v>-1.1400000000000039</v>
       </c>
       <c r="F105" s="3">
-        <v>-0.11400000000000041</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3711,7 +3708,7 @@
         <v>-2.0319999999999978</v>
       </c>
       <c r="F106" s="3">
-        <v>-0.12699999999999989</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3731,7 +3728,7 @@
         <v>-2.0319999999999978</v>
       </c>
       <c r="F107" s="3">
-        <v>-0.12699999999999989</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3751,7 +3748,7 @@
         <v>-2.0319999999999978</v>
       </c>
       <c r="F108" s="3">
-        <v>-0.12699999999999989</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3762,16 +3759,16 @@
         <v>14</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E109" s="3">
         <v>-2.0319999999999978</v>
       </c>
       <c r="F109" s="3">
-        <v>-0.12699999999999989</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3782,16 +3779,16 @@
         <v>14</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="E110" s="3">
         <v>-2.0319999999999978</v>
       </c>
       <c r="F110" s="3">
-        <v>-0.12699999999999989</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3802,16 +3799,16 @@
         <v>14</v>
       </c>
       <c r="C111" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="E111" s="3">
         <v>-2.0319999999999978</v>
       </c>
       <c r="F111" s="3">
-        <v>-0.12699999999999989</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3822,16 +3819,16 @@
         <v>14</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="E112" s="3">
         <v>-2.0319999999999978</v>
       </c>
       <c r="F112" s="3">
-        <v>-0.12699999999999989</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3842,16 +3839,16 @@
         <v>14</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="E113" s="3">
         <v>-2.0319999999999978</v>
       </c>
       <c r="F113" s="3">
-        <v>-0.12699999999999989</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3862,16 +3859,16 @@
         <v>14</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="E114" s="3">
         <v>-2.0319999999999978</v>
       </c>
       <c r="F114" s="3">
-        <v>-0.12699999999999989</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3891,7 +3888,7 @@
         <v>-2.5400000000000058</v>
       </c>
       <c r="F115" s="3">
-        <v>-0.12700000000000031</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3911,7 +3908,7 @@
         <v>-2.5400000000000058</v>
       </c>
       <c r="F116" s="3">
-        <v>-0.12700000000000031</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3931,7 +3928,7 @@
         <v>-2.5400000000000058</v>
       </c>
       <c r="F117" s="3">
-        <v>-0.12700000000000031</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3942,16 +3939,16 @@
         <v>6</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="E118" s="3">
         <v>-2.5400000000000058</v>
       </c>
       <c r="F118" s="3">
-        <v>-0.12700000000000031</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3962,16 +3959,16 @@
         <v>6</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E119" s="3">
         <v>-2.5400000000000058</v>
       </c>
       <c r="F119" s="3">
-        <v>-0.12700000000000031</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3991,7 +3988,7 @@
         <v>-1.4000000000000019</v>
       </c>
       <c r="F120" s="3">
-        <v>-0.14000000000000021</v>
+        <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4002,16 +3999,16 @@
         <v>17</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E121" s="3">
         <v>-2.0099999999999998</v>
       </c>
       <c r="F121" s="3">
-        <v>-0.14357142857142849</v>
+        <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4031,7 +4028,7 @@
         <v>-4.5999999999999961</v>
       </c>
       <c r="F122" s="3">
-        <v>-0.15333333333333321</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4051,7 +4048,7 @@
         <v>-4.5999999999999961</v>
       </c>
       <c r="F123" s="3">
-        <v>-0.15333333333333321</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4071,7 +4068,7 @@
         <v>-4.5999999999999961</v>
       </c>
       <c r="F124" s="3">
-        <v>-0.15333333333333321</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4082,16 +4079,16 @@
         <v>16</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="E125" s="3">
         <v>-4.5999999999999961</v>
       </c>
       <c r="F125" s="3">
-        <v>-0.15333333333333321</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4102,16 +4099,16 @@
         <v>16</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="E126" s="3">
         <v>-4.5999999999999961</v>
       </c>
       <c r="F126" s="3">
-        <v>-0.15333333333333321</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4122,16 +4119,16 @@
         <v>16</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="E127" s="3">
         <v>-4.5999999999999961</v>
       </c>
       <c r="F127" s="3">
-        <v>-0.15333333333333321</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4142,16 +4139,16 @@
         <v>16</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="E128" s="3">
         <v>-4.5999999999999961</v>
       </c>
       <c r="F128" s="3">
-        <v>-0.15333333333333321</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4162,16 +4159,16 @@
         <v>16</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="E129" s="3">
         <v>-4.5999999999999961</v>
       </c>
       <c r="F129" s="3">
-        <v>-0.15333333333333321</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4182,16 +4179,16 @@
         <v>11</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E130" s="3">
         <v>-4.099999999999997</v>
       </c>
       <c r="F130" s="3">
-        <v>-0.1576923076923076</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4211,7 +4208,7 @@
         <v>-4.3049999999999971</v>
       </c>
       <c r="F131" s="3">
-        <v>-0.16557692307692301</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4231,7 +4228,7 @@
         <v>-4.3049999999999971</v>
       </c>
       <c r="F132" s="3">
-        <v>-0.16557692307692301</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4242,16 +4239,16 @@
         <v>18</v>
       </c>
       <c r="C133" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E133" s="3">
         <v>-4.3049999999999971</v>
       </c>
       <c r="F133" s="3">
-        <v>-0.16557692307692301</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4262,16 +4259,16 @@
         <v>18</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="E134" s="3">
         <v>-4.3049999999999971</v>
       </c>
       <c r="F134" s="3">
-        <v>-0.16557692307692301</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4282,16 +4279,16 @@
         <v>18</v>
       </c>
       <c r="C135" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="E135" s="3">
         <v>-4.3049999999999971</v>
       </c>
       <c r="F135" s="3">
-        <v>-0.16557692307692301</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4302,16 +4299,16 @@
         <v>18</v>
       </c>
       <c r="C136" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="E136" s="3">
         <v>-4.3049999999999971</v>
       </c>
       <c r="F136" s="3">
-        <v>-0.16557692307692301</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4322,16 +4319,16 @@
         <v>18</v>
       </c>
       <c r="C137" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="E137" s="3">
         <v>-4.3049999999999971</v>
       </c>
       <c r="F137" s="3">
-        <v>-0.16557692307692301</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4342,16 +4339,16 @@
         <v>5</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="E138" s="3">
         <v>-2.0300000000000038</v>
       </c>
       <c r="F138" s="3">
-        <v>-0.16916666666666699</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4362,16 +4359,16 @@
         <v>11</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="E139" s="3">
         <v>-4.4050000000000011</v>
       </c>
       <c r="F139" s="3">
-        <v>-0.18354166666666669</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4382,16 +4379,16 @@
         <v>11</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="E140" s="3">
         <v>-4.4050000000000011</v>
       </c>
       <c r="F140" s="3">
-        <v>-0.18354166666666669</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4402,16 +4399,16 @@
         <v>5</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E141" s="3">
         <v>-1.9400000000000011</v>
       </c>
       <c r="F141" s="3">
-        <v>-0.19400000000000009</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4431,7 +4428,7 @@
         <v>-3.15</v>
       </c>
       <c r="F142" s="3">
-        <v>-0.22500000000000001</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4451,7 +4448,7 @@
         <v>-3.15</v>
       </c>
       <c r="F143" s="3">
-        <v>-0.22500000000000001</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4462,16 +4459,16 @@
         <v>8</v>
       </c>
       <c r="C144" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="E144" s="3">
         <v>-3.15</v>
       </c>
       <c r="F144" s="3">
-        <v>-0.22500000000000001</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4482,16 +4479,16 @@
         <v>8</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="E145" s="3">
         <v>-3.15</v>
       </c>
       <c r="F145" s="3">
-        <v>-0.22500000000000001</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4502,16 +4499,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E146" s="3">
         <v>-3.15</v>
       </c>
       <c r="F146" s="3">
-        <v>-0.22500000000000001</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4522,16 +4519,16 @@
         <v>8</v>
       </c>
       <c r="C147" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="E147" s="3">
         <v>-3.15</v>
       </c>
       <c r="F147" s="3">
-        <v>-0.22500000000000001</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4542,16 +4539,16 @@
         <v>8</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="E148" s="3">
         <v>-3.15</v>
       </c>
       <c r="F148" s="3">
-        <v>-0.22500000000000001</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4562,16 +4559,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="E149" s="3">
         <v>-3.15</v>
       </c>
       <c r="F149" s="3">
-        <v>-0.22500000000000001</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -4582,16 +4579,16 @@
         <v>2</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E150" s="3">
         <v>-2.3170000000000002</v>
       </c>
       <c r="F150" s="3">
-        <v>-0.25744444444444448</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4602,16 +4599,16 @@
         <v>18</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="E151" s="3">
         <v>-4.3049999999999971</v>
       </c>
       <c r="F151" s="3">
-        <v>-0.26906249999999982</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4631,7 +4628,7 @@
         <v>-5.0599999999999943</v>
       </c>
       <c r="F152" s="3">
-        <v>-0.2976470588235291</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4651,7 +4648,7 @@
         <v>-5.0599999999999943</v>
       </c>
       <c r="F153" s="3">
-        <v>-0.2976470588235291</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4671,7 +4668,7 @@
         <v>-5.0599999999999943</v>
       </c>
       <c r="F154" s="3">
-        <v>-0.2976470588235291</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4682,16 +4679,16 @@
         <v>17</v>
       </c>
       <c r="C155" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="E155" s="3">
         <v>-5.0599999999999943</v>
       </c>
       <c r="F155" s="3">
-        <v>-0.2976470588235291</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4702,16 +4699,16 @@
         <v>17</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E156" s="3">
         <v>-5.0599999999999943</v>
       </c>
       <c r="F156" s="3">
-        <v>-0.2976470588235291</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4722,7 +4719,7 @@
         <v>17</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>44</v>
@@ -4731,7 +4728,7 @@
         <v>-5.0599999999999943</v>
       </c>
       <c r="F157" s="3">
-        <v>-0.2976470588235291</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4742,16 +4739,16 @@
         <v>17</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E158" s="3">
         <v>-5.0599999999999943</v>
       </c>
       <c r="F158" s="3">
-        <v>-0.2976470588235291</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -4762,16 +4759,16 @@
         <v>17</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E159" s="3">
         <v>-5.0599999999999943</v>
       </c>
       <c r="F159" s="3">
-        <v>-0.2976470588235291</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -4782,16 +4779,16 @@
         <v>11</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E160" s="3">
         <v>-8.504999999999999</v>
       </c>
       <c r="F160" s="3">
-        <v>-0.30375000000000002</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4802,16 +4799,16 @@
         <v>19</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E161" s="3">
         <v>-1.5460000000000009</v>
       </c>
       <c r="F161" s="3">
-        <v>-0.30920000000000031</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4822,16 +4819,16 @@
         <v>19</v>
       </c>
       <c r="C162" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="E162" s="3">
         <v>-1.5460000000000009</v>
       </c>
       <c r="F162" s="3">
-        <v>-0.30920000000000031</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4842,16 +4839,16 @@
         <v>19</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E163" s="3">
         <v>-1.5460000000000009</v>
       </c>
       <c r="F163" s="3">
-        <v>-0.30920000000000031</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4862,16 +4859,16 @@
         <v>19</v>
       </c>
       <c r="C164" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="E164" s="3">
         <v>-1.5460000000000009</v>
       </c>
       <c r="F164" s="3">
-        <v>-0.30920000000000031</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4882,16 +4879,16 @@
         <v>19</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E165" s="3">
         <v>-1.5460000000000009</v>
       </c>
       <c r="F165" s="3">
-        <v>-0.30920000000000031</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4902,16 +4899,16 @@
         <v>19</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E166" s="3">
         <v>-1.5460000000000009</v>
       </c>
       <c r="F166" s="3">
-        <v>-0.30920000000000031</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4922,16 +4919,16 @@
         <v>19</v>
       </c>
       <c r="C167" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="E167" s="3">
         <v>-1.5460000000000009</v>
       </c>
       <c r="F167" s="3">
-        <v>-0.30920000000000031</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4942,16 +4939,16 @@
         <v>19</v>
       </c>
       <c r="C168" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="E168" s="3">
         <v>-1.5460000000000009</v>
       </c>
       <c r="F168" s="3">
-        <v>-0.30920000000000031</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4962,16 +4959,16 @@
         <v>19</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E169" s="3">
         <v>-1.5460000000000009</v>
       </c>
       <c r="F169" s="3">
-        <v>-0.30920000000000031</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4991,7 +4988,7 @@
         <v>-9.230000000000004</v>
       </c>
       <c r="F170" s="3">
-        <v>-0.32964285714285729</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -5002,16 +4999,16 @@
         <v>5</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E171" s="3">
         <v>-9.230000000000004</v>
       </c>
       <c r="F171" s="3">
-        <v>-0.32964285714285729</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -5022,16 +5019,16 @@
         <v>5</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E172" s="3">
         <v>-9.230000000000004</v>
       </c>
       <c r="F172" s="3">
-        <v>-0.32964285714285729</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5042,16 +5039,16 @@
         <v>5</v>
       </c>
       <c r="C173" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D173" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="E173" s="3">
         <v>-9.230000000000004</v>
       </c>
       <c r="F173" s="3">
-        <v>-0.32964285714285729</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5071,7 +5068,7 @@
         <v>-7.5000000000000018</v>
       </c>
       <c r="F174" s="3">
-        <v>-0.34090909090909099</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5091,7 +5088,7 @@
         <v>-7.5000000000000018</v>
       </c>
       <c r="F175" s="3">
-        <v>-0.34090909090909099</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5102,16 +5099,16 @@
         <v>13</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E176" s="3">
         <v>-7.5000000000000018</v>
       </c>
       <c r="F176" s="3">
-        <v>-0.34090909090909099</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5122,16 +5119,16 @@
         <v>13</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E177" s="3">
         <v>-7.5000000000000018</v>
       </c>
       <c r="F177" s="3">
-        <v>-0.34090909090909099</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -5142,16 +5139,16 @@
         <v>13</v>
       </c>
       <c r="C178" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="E178" s="3">
         <v>-7.5000000000000018</v>
       </c>
       <c r="F178" s="3">
-        <v>-0.34090909090909099</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -5162,16 +5159,16 @@
         <v>13</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="E179" s="3">
         <v>-7.5000000000000018</v>
       </c>
       <c r="F179" s="3">
-        <v>-0.35714285714285721</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5182,16 +5179,16 @@
         <v>13</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E180" s="3">
         <v>-7.5000000000000018</v>
       </c>
       <c r="F180" s="3">
-        <v>-0.35714285714285721</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5202,10 +5199,10 @@
         <v>1</v>
       </c>
       <c r="C181" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="E181" s="3">
         <v>-9.1999999999999993</v>
@@ -5222,16 +5219,16 @@
         <v>9</v>
       </c>
       <c r="C182" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="E182" s="3">
         <v>-6.8000000000000016</v>
       </c>
       <c r="F182" s="3">
-        <v>-0.52307692307692322</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -5242,16 +5239,16 @@
         <v>1</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="E183" s="3">
         <v>-11.76</v>
       </c>
       <c r="F183" s="3">
-        <v>-0.55999999999999994</v>
+        <v>-0.56000000000000005</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -5262,16 +5259,16 @@
         <v>5</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="E184" s="3">
         <v>-9.230000000000004</v>
       </c>
       <c r="F184" s="3">
-        <v>-0.57687500000000025</v>
+        <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -5282,16 +5279,16 @@
         <v>5</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E185" s="3">
         <v>-9.230000000000004</v>
       </c>
       <c r="F185" s="3">
-        <v>-0.57687500000000025</v>
+        <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -5302,10 +5299,10 @@
         <v>18</v>
       </c>
       <c r="C186" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="E186" s="3">
         <v>-7.1999999999999993</v>
@@ -5331,7 +5328,7 @@
         <v>-8.7999999999999936</v>
       </c>
       <c r="F187" s="3">
-        <v>-0.67692307692307641</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5342,16 +5339,16 @@
         <v>2</v>
       </c>
       <c r="C188" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="E188" s="3">
         <v>-8.7999999999999936</v>
       </c>
       <c r="F188" s="3">
-        <v>-0.67692307692307641</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5371,7 +5368,7 @@
         <v>-11.11699999999999</v>
       </c>
       <c r="F189" s="3">
-        <v>-0.74113333333333287</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -5391,7 +5388,7 @@
         <v>-11.11699999999999</v>
       </c>
       <c r="F190" s="3">
-        <v>-0.74113333333333287</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -5411,7 +5408,7 @@
         <v>-11.11699999999999</v>
       </c>
       <c r="F191" s="3">
-        <v>-0.74113333333333287</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -5422,16 +5419,16 @@
         <v>2</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="E192" s="3">
         <v>-11.11699999999999</v>
       </c>
       <c r="F192" s="3">
-        <v>-0.74113333333333287</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -5442,16 +5439,16 @@
         <v>2</v>
       </c>
       <c r="C193" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="E193" s="3">
         <v>-11.11699999999999</v>
       </c>
       <c r="F193" s="3">
-        <v>-0.74113333333333287</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -5462,16 +5459,16 @@
         <v>2</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="E194" s="3">
         <v>-11.11699999999999</v>
       </c>
       <c r="F194" s="3">
-        <v>-0.74113333333333287</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -5491,7 +5488,7 @@
         <v>-4.0399999999999991</v>
       </c>
       <c r="F195" s="3">
-        <v>-0.80799999999999983</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -5502,16 +5499,16 @@
         <v>3</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E196" s="3">
         <v>-4.0399999999999991</v>
       </c>
       <c r="F196" s="3">
-        <v>-0.80799999999999983</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -5531,7 +5528,7 @@
         <v>-13.1</v>
       </c>
       <c r="F197" s="3">
-        <v>-0.93571428571428583</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -5551,7 +5548,7 @@
         <v>-13.1</v>
       </c>
       <c r="F198" s="3">
-        <v>-0.93571428571428583</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -5571,7 +5568,7 @@
         <v>-13.1</v>
       </c>
       <c r="F199" s="3">
-        <v>-0.93571428571428583</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5582,16 +5579,16 @@
         <v>9</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E200" s="3">
         <v>-13.1</v>
       </c>
       <c r="F200" s="3">
-        <v>-0.93571428571428583</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -5602,16 +5599,16 @@
         <v>9</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E201" s="3">
         <v>-13.1</v>
       </c>
       <c r="F201" s="3">
-        <v>-0.93571428571428583</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -5622,16 +5619,16 @@
         <v>9</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E202" s="3">
         <v>-13.1</v>
       </c>
       <c r="F202" s="3">
-        <v>-0.93571428571428583</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -5642,16 +5639,16 @@
         <v>9</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E203" s="3">
         <v>-13.1</v>
       </c>
       <c r="F203" s="3">
-        <v>-0.93571428571428583</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -5662,16 +5659,16 @@
         <v>9</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E204" s="3">
         <v>-13.1</v>
       </c>
       <c r="F204" s="3">
-        <v>-0.93571428571428583</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -5682,16 +5679,16 @@
         <v>17</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="E205" s="3">
         <v>-3.049999999999994</v>
       </c>
       <c r="F205" s="3">
-        <v>-1.0166666666666651</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -5702,16 +5699,16 @@
         <v>11</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E206" s="3">
         <v>-4.099999999999997</v>
       </c>
       <c r="F206" s="3">
-        <v>-1.024999999999999</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -5722,16 +5719,16 @@
         <v>11</v>
       </c>
       <c r="C207" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="E207" s="3">
         <v>-4.099999999999997</v>
       </c>
       <c r="F207" s="3">
-        <v>-1.024999999999999</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -5742,16 +5739,16 @@
         <v>11</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E208" s="3">
         <v>-4.099999999999997</v>
       </c>
       <c r="F208" s="3">
-        <v>-1.024999999999999</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -5762,16 +5759,16 @@
         <v>16</v>
       </c>
       <c r="C209" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D209" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="E209" s="3">
         <v>-4.299999999999998</v>
       </c>
       <c r="F209" s="3">
-        <v>-1.075</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -5782,16 +5779,16 @@
         <v>2</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E210" s="3">
         <v>-2.3170000000000002</v>
       </c>
       <c r="F210" s="3">
-        <v>-1.1585000000000001</v>
+        <v>-1.1599999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -5802,16 +5799,16 @@
         <v>5</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E211" s="3">
         <v>-7.2900000000000036</v>
       </c>
       <c r="F211" s="3">
-        <v>-1.215000000000001</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -5822,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="C212" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="E212" s="3">
         <v>-7.2900000000000036</v>
       </c>
       <c r="F212" s="3">
-        <v>-1.215000000000001</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -5842,16 +5839,16 @@
         <v>2</v>
       </c>
       <c r="C213" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D213" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="E213" s="3">
         <v>-11.11699999999999</v>
       </c>
       <c r="F213" s="3">
-        <v>-1.389624999999999</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -5871,7 +5868,7 @@
         <v>-9.7999999999999954</v>
       </c>
       <c r="F214" s="3">
-        <v>-1.399999999999999</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -5882,16 +5879,16 @@
         <v>20</v>
       </c>
       <c r="C215" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D215" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="E215" s="3">
         <v>-9.7999999999999954</v>
       </c>
       <c r="F215" s="3">
-        <v>-1.399999999999999</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -5902,16 +5899,16 @@
         <v>20</v>
       </c>
       <c r="C216" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="E216" s="3">
         <v>-9.7999999999999954</v>
       </c>
       <c r="F216" s="3">
-        <v>-1.399999999999999</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -5922,16 +5919,16 @@
         <v>20</v>
       </c>
       <c r="C217" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="E217" s="3">
         <v>-9.7999999999999954</v>
       </c>
       <c r="F217" s="3">
-        <v>-1.399999999999999</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -5942,16 +5939,16 @@
         <v>20</v>
       </c>
       <c r="C218" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="E218" s="3">
         <v>-9.7999999999999954</v>
       </c>
       <c r="F218" s="3">
-        <v>-1.399999999999999</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -5962,16 +5959,16 @@
         <v>20</v>
       </c>
       <c r="C219" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D219" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="E219" s="3">
         <v>-9.7999999999999954</v>
       </c>
       <c r="F219" s="3">
-        <v>-1.399999999999999</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -5982,16 +5979,16 @@
         <v>20</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E220" s="3">
         <v>-9.7999999999999954</v>
       </c>
       <c r="F220" s="3">
-        <v>-1.399999999999999</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -6002,16 +5999,16 @@
         <v>20</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E221" s="3">
         <v>-9.7999999999999954</v>
       </c>
       <c r="F221" s="3">
-        <v>-1.399999999999999</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -6022,16 +6019,16 @@
         <v>20</v>
       </c>
       <c r="C222" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D222" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="E222" s="3">
         <v>-9.7999999999999954</v>
       </c>
       <c r="F222" s="3">
-        <v>-1.399999999999999</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -6051,7 +6048,7 @@
         <v>-1.4000000000000019</v>
       </c>
       <c r="F223" s="3">
-        <v>-1.4000000000000019</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -6071,7 +6068,7 @@
         <v>-1.4000000000000019</v>
       </c>
       <c r="F224" s="3">
-        <v>-1.4000000000000019</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -6082,16 +6079,16 @@
         <v>6</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E225" s="3">
         <v>-1.4000000000000019</v>
       </c>
       <c r="F225" s="3">
-        <v>-1.4000000000000019</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -6102,16 +6099,16 @@
         <v>11</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E226" s="3">
         <v>-8.504999999999999</v>
       </c>
       <c r="F226" s="3">
-        <v>-1.4175</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -6122,16 +6119,16 @@
         <v>11</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E227" s="3">
         <v>-8.504999999999999</v>
       </c>
       <c r="F227" s="3">
-        <v>-1.4175</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -6142,16 +6139,16 @@
         <v>11</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E228" s="3">
         <v>-8.504999999999999</v>
       </c>
       <c r="F228" s="3">
-        <v>-1.4175</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -6162,16 +6159,16 @@
         <v>11</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E229" s="3">
         <v>-8.504999999999999</v>
       </c>
       <c r="F229" s="3">
-        <v>-1.4175</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -6182,16 +6179,16 @@
         <v>3</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E230" s="3">
         <v>-1.7000000000000011</v>
       </c>
       <c r="F230" s="3">
-        <v>-1.7000000000000011</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -6222,10 +6219,10 @@
         <v>3</v>
       </c>
       <c r="C232" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D232" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="E232" s="3">
         <v>-1.94</v>
@@ -6262,10 +6259,10 @@
         <v>13</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E234" s="3">
         <v>-10.8</v>
@@ -6291,7 +6288,7 @@
         <v>-4.4050000000000011</v>
       </c>
       <c r="F235" s="3">
-        <v>-2.202500000000001</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -6311,7 +6308,7 @@
         <v>-4.4050000000000011</v>
       </c>
       <c r="F236" s="3">
-        <v>-2.202500000000001</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -6322,16 +6319,16 @@
         <v>12</v>
       </c>
       <c r="C237" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D237" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="E237" s="3">
         <v>-8.2000000000000028</v>
       </c>
       <c r="F237" s="3">
-        <v>-2.7333333333333338</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -6342,16 +6339,16 @@
         <v>15</v>
       </c>
       <c r="C238" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D238" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="E238" s="3">
         <v>-5.7000000000000011</v>
       </c>
       <c r="F238" s="3">
-        <v>-2.850000000000001</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -6359,19 +6356,19 @@
         <v>237</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>139</v>
+        <v>357</v>
       </c>
       <c r="E239" s="3">
-        <v>-6.8640000000000008</v>
+        <v>-9.89</v>
       </c>
       <c r="F239" s="3">
-        <v>-3.4319999999999999</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -6379,98 +6376,82 @@
         <v>238</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>357</v>
+        <v>89</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>358</v>
+        <v>90</v>
       </c>
       <c r="E240" s="3">
-        <v>-9.89</v>
+        <v>-6.2999999999999989</v>
       </c>
       <c r="F240" s="3">
-        <v>-4.9450000000000003</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="3">
-        <v>239</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E241" s="3">
-        <v>-6.2999999999999989</v>
-      </c>
-      <c r="F241" s="3">
-        <v>-6.2999999999999989</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="241" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
@@ -6493,10 +6474,6 @@
     <row r="261" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
-    </row>
-    <row r="262" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
     </row>
   </sheetData>
   <sortState ref="B3:F262">
@@ -6509,10 +6486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G262"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -6522,7 +6499,7 @@
     <col min="3" max="3" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="3" bestFit="1" customWidth="1"/>
@@ -6534,29 +6511,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -6568,16 +6545,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E3" s="3">
-        <v>28.7</v>
+        <v>31.51</v>
       </c>
       <c r="F3" s="3">
-        <v>14.35</v>
+        <v>10.5</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -6589,10 +6566,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3">
         <v>31.51</v>
@@ -6610,16 +6587,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="E5" s="3">
-        <v>31.51</v>
+        <v>31.1</v>
       </c>
       <c r="F5" s="3">
-        <v>10.5</v>
+        <v>10.37</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -6631,16 +6608,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="E6" s="3">
-        <v>31.1</v>
+        <v>41.010000000000012</v>
       </c>
       <c r="F6" s="3">
-        <v>10.37</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -6652,16 +6629,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3">
-        <v>41.01</v>
+        <v>67.846000000000004</v>
       </c>
       <c r="F7" s="3">
-        <v>8.1999999999999993</v>
+        <v>7.54</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -6673,16 +6650,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E8" s="3">
-        <v>70.444000000000003</v>
+        <v>67.846000000000004</v>
       </c>
       <c r="F8" s="3">
-        <v>7.83</v>
+        <v>7.54</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -6694,16 +6671,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E9" s="3">
-        <v>70.444000000000003</v>
+        <v>67.846000000000004</v>
       </c>
       <c r="F9" s="3">
-        <v>7.83</v>
+        <v>7.54</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -6715,16 +6692,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E10" s="3">
-        <v>70.444000000000003</v>
+        <v>67.846000000000004</v>
       </c>
       <c r="F10" s="3">
-        <v>7.83</v>
+        <v>7.54</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -6736,16 +6713,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>153</v>
+        <v>364</v>
       </c>
       <c r="E11" s="3">
-        <v>70.444000000000003</v>
+        <v>67.846000000000004</v>
       </c>
       <c r="F11" s="3">
-        <v>7.83</v>
+        <v>7.54</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -6754,19 +6731,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>363</v>
+        <v>224</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="E12" s="3">
-        <v>70.444000000000003</v>
+        <v>14.94</v>
       </c>
       <c r="F12" s="3">
-        <v>7.83</v>
+        <v>7.47</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -6778,10 +6755,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>226</v>
+        <v>350</v>
       </c>
       <c r="E13" s="3">
         <v>14.94</v>
@@ -6796,19 +6773,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="E14" s="3">
-        <v>14.94</v>
+        <v>27.1</v>
       </c>
       <c r="F14" s="3">
-        <v>7.47</v>
+        <v>6.78</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -6820,16 +6797,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="E15" s="3">
-        <v>29.434000000000001</v>
+        <v>26.835999999999999</v>
       </c>
       <c r="F15" s="3">
-        <v>7.36</v>
+        <v>6.71</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -6838,19 +6815,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>315</v>
+        <v>177</v>
       </c>
       <c r="E16" s="3">
-        <v>27.1</v>
+        <v>26.835999999999999</v>
       </c>
       <c r="F16" s="3">
-        <v>6.78</v>
+        <v>6.71</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -6862,16 +6839,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="E17" s="3">
-        <v>39.344000000000001</v>
+        <v>36.746000000000002</v>
       </c>
       <c r="F17" s="3">
-        <v>6.56</v>
+        <v>6.12</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -6889,10 +6866,10 @@
         <v>125</v>
       </c>
       <c r="E18" s="3">
-        <v>38.933999999999997</v>
+        <v>36.335999999999999</v>
       </c>
       <c r="F18" s="3">
-        <v>6.49</v>
+        <v>6.06</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -6904,13 +6881,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" s="3">
-        <v>5.8</v>
+        <v>5.7999999999999989</v>
       </c>
       <c r="F19" s="3">
         <v>5.8</v>
@@ -6931,7 +6908,7 @@
         <v>131</v>
       </c>
       <c r="E20" s="3">
-        <v>40.200000000000003</v>
+        <v>40.20000000000001</v>
       </c>
       <c r="F20" s="3">
         <v>5.74</v>
@@ -6946,13 +6923,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="E21" s="3">
-        <v>40.200000000000003</v>
+        <v>40.20000000000001</v>
       </c>
       <c r="F21" s="3">
         <v>5.74</v>
@@ -6967,13 +6944,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="E22" s="3">
-        <v>40.200000000000003</v>
+        <v>40.20000000000001</v>
       </c>
       <c r="F22" s="3">
         <v>5.74</v>
@@ -6988,13 +6965,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="E23" s="3">
-        <v>40.200000000000003</v>
+        <v>40.20000000000001</v>
       </c>
       <c r="F23" s="3">
         <v>5.74</v>
@@ -7009,13 +6986,13 @@
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="E24" s="3">
-        <v>40.200000000000003</v>
+        <v>40.20000000000001</v>
       </c>
       <c r="F24" s="3">
         <v>5.74</v>
@@ -7030,13 +7007,13 @@
         <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="E25" s="3">
-        <v>40.200000000000003</v>
+        <v>40.20000000000001</v>
       </c>
       <c r="F25" s="3">
         <v>5.74</v>
@@ -7051,13 +7028,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E26" s="3">
-        <v>40.200000000000003</v>
+        <v>40.20000000000001</v>
       </c>
       <c r="F26" s="3">
         <v>5.74</v>
@@ -7072,13 +7049,13 @@
         <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E27" s="3">
-        <v>40.200000000000003</v>
+        <v>40.20000000000001</v>
       </c>
       <c r="F27" s="3">
         <v>5.74</v>
@@ -7093,13 +7070,13 @@
         <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="E28" s="3">
-        <v>40.200000000000003</v>
+        <v>40.20000000000001</v>
       </c>
       <c r="F28" s="3">
         <v>5.74</v>
@@ -7135,10 +7112,10 @@
         <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E30" s="3">
         <v>17.100000000000001</v>
@@ -7195,19 +7172,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="E33" s="3">
-        <v>9.5</v>
+        <v>25.954000000000001</v>
       </c>
       <c r="F33" s="3">
-        <v>4.75</v>
+        <v>5.19</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -7219,16 +7196,16 @@
         <v>19</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E34" s="3">
-        <v>23.356000000000002</v>
+        <v>25.954000000000001</v>
       </c>
       <c r="F34" s="3">
-        <v>4.67</v>
+        <v>5.19</v>
       </c>
       <c r="G34" s="2"/>
     </row>
@@ -7240,16 +7217,16 @@
         <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E35" s="3">
-        <v>23.356000000000002</v>
+        <v>25.954000000000001</v>
       </c>
       <c r="F35" s="3">
-        <v>4.67</v>
+        <v>5.19</v>
       </c>
       <c r="G35" s="2"/>
     </row>
@@ -7261,16 +7238,16 @@
         <v>19</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E36" s="3">
-        <v>23.356000000000002</v>
+        <v>25.954000000000001</v>
       </c>
       <c r="F36" s="3">
-        <v>4.67</v>
+        <v>5.19</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -7282,16 +7259,16 @@
         <v>19</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E37" s="3">
-        <v>23.356000000000002</v>
+        <v>25.954000000000001</v>
       </c>
       <c r="F37" s="3">
-        <v>4.67</v>
+        <v>5.19</v>
       </c>
       <c r="G37" s="2"/>
     </row>
@@ -7303,16 +7280,16 @@
         <v>19</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E38" s="3">
-        <v>23.356000000000002</v>
+        <v>25.954000000000001</v>
       </c>
       <c r="F38" s="3">
-        <v>4.67</v>
+        <v>5.19</v>
       </c>
       <c r="G38" s="2"/>
     </row>
@@ -7324,16 +7301,16 @@
         <v>19</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="E39" s="3">
-        <v>23.356000000000002</v>
+        <v>25.954000000000001</v>
       </c>
       <c r="F39" s="3">
-        <v>4.67</v>
+        <v>5.19</v>
       </c>
       <c r="G39" s="2"/>
     </row>
@@ -7345,16 +7322,16 @@
         <v>19</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E40" s="3">
-        <v>23.356000000000002</v>
+        <v>25.954000000000001</v>
       </c>
       <c r="F40" s="3">
-        <v>4.67</v>
+        <v>5.19</v>
       </c>
       <c r="G40" s="2"/>
     </row>
@@ -7366,16 +7343,16 @@
         <v>19</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="E41" s="3">
-        <v>23.356000000000002</v>
+        <v>25.954000000000001</v>
       </c>
       <c r="F41" s="3">
-        <v>4.67</v>
+        <v>5.19</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -7384,19 +7361,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>295</v>
+        <v>164</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="E42" s="3">
-        <v>23.356000000000002</v>
+        <v>9.5</v>
       </c>
       <c r="F42" s="3">
-        <v>4.67</v>
+        <v>4.75</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -7408,10 +7385,10 @@
         <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43" s="3">
         <v>27.71</v>
@@ -7429,10 +7406,10 @@
         <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="E44" s="3">
         <v>27.71</v>
@@ -7450,13 +7427,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E45" s="3">
-        <v>32.74</v>
+        <v>32.739999999999988</v>
       </c>
       <c r="F45" s="3">
         <v>4.09</v>
@@ -7492,13 +7469,13 @@
         <v>15</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="E47" s="3">
-        <v>58.26</v>
+        <v>58.260000000000012</v>
       </c>
       <c r="F47" s="3">
         <v>3.64</v>
@@ -7513,10 +7490,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="E48" s="3">
         <v>3.5</v>
@@ -7534,10 +7511,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="E49" s="3">
         <v>3.5</v>
@@ -7555,10 +7532,10 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="E50" s="3">
         <v>13.2</v>
@@ -7618,10 +7595,10 @@
         <v>15</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="E53" s="3">
         <v>52.46</v>
@@ -7639,10 +7616,10 @@
         <v>15</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E54" s="3">
         <v>52.46</v>
@@ -7660,10 +7637,10 @@
         <v>15</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="E55" s="3">
         <v>52.46</v>
@@ -7681,10 +7658,10 @@
         <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E56" s="3">
         <v>52.46</v>
@@ -7702,10 +7679,10 @@
         <v>15</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E57" s="3">
         <v>52.46</v>
@@ -7723,10 +7700,10 @@
         <v>15</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="E58" s="3">
         <v>52.46</v>
@@ -7750,7 +7727,7 @@
         <v>109</v>
       </c>
       <c r="E59" s="3">
-        <v>47.36</v>
+        <v>47.359999999999992</v>
       </c>
       <c r="F59" s="3">
         <v>2.96</v>
@@ -7765,10 +7742,10 @@
         <v>8</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="E60" s="3">
         <v>31.74</v>
@@ -7792,7 +7769,7 @@
         <v>83</v>
       </c>
       <c r="E61" s="3">
-        <v>36.85</v>
+        <v>36.849999999999987</v>
       </c>
       <c r="F61" s="3">
         <v>2.63</v>
@@ -7813,7 +7790,7 @@
         <v>106</v>
       </c>
       <c r="E62" s="3">
-        <v>36.85</v>
+        <v>36.849999999999987</v>
       </c>
       <c r="F62" s="3">
         <v>2.63</v>
@@ -7828,13 +7805,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="E63" s="3">
-        <v>36.85</v>
+        <v>36.849999999999987</v>
       </c>
       <c r="F63" s="3">
         <v>2.63</v>
@@ -7849,13 +7826,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="E64" s="3">
-        <v>36.85</v>
+        <v>36.849999999999987</v>
       </c>
       <c r="F64" s="3">
         <v>2.63</v>
@@ -7870,13 +7847,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E65" s="3">
-        <v>36.85</v>
+        <v>36.849999999999987</v>
       </c>
       <c r="F65" s="3">
         <v>2.63</v>
@@ -7891,13 +7868,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="E66" s="3">
-        <v>36.85</v>
+        <v>36.849999999999987</v>
       </c>
       <c r="F66" s="3">
         <v>2.63</v>
@@ -7912,13 +7889,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="E67" s="3">
-        <v>36.85</v>
+        <v>36.849999999999987</v>
       </c>
       <c r="F67" s="3">
         <v>2.63</v>
@@ -7933,13 +7910,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="E68" s="3">
-        <v>36.85</v>
+        <v>36.849999999999987</v>
       </c>
       <c r="F68" s="3">
         <v>2.63</v>
@@ -7954,10 +7931,10 @@
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E69" s="3">
         <v>13</v>
@@ -7975,10 +7952,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="E70" s="3">
         <v>5.1100000000000003</v>
@@ -7996,10 +7973,10 @@
         <v>18</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="E71" s="3">
         <v>40.695</v>
@@ -8017,13 +7994,13 @@
         <v>17</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="E72" s="3">
-        <v>6.95</v>
+        <v>6.9500000000000064</v>
       </c>
       <c r="F72" s="3">
         <v>2.3199999999999998</v>
@@ -8038,10 +8015,10 @@
         <v>5</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="E73" s="3">
         <v>33.270000000000003</v>
@@ -8059,10 +8036,10 @@
         <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E74" s="3">
         <v>33.270000000000003</v>
@@ -8080,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>39</v>
@@ -8122,10 +8099,10 @@
         <v>5</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="E77" s="3">
         <v>20.47</v>
@@ -8185,10 +8162,10 @@
         <v>18</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E80" s="3">
         <v>40.695</v>
@@ -8206,10 +8183,10 @@
         <v>18</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="E81" s="3">
         <v>40.695</v>
@@ -8227,10 +8204,10 @@
         <v>18</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="E82" s="3">
         <v>40.695</v>
@@ -8248,10 +8225,10 @@
         <v>18</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="E83" s="3">
         <v>40.695</v>
@@ -8269,10 +8246,10 @@
         <v>18</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="E84" s="3">
         <v>40.695</v>
@@ -8332,10 +8309,10 @@
         <v>4</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="E87" s="3">
         <v>31.57</v>
@@ -8353,10 +8330,10 @@
         <v>18</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="E88" s="3">
         <v>32.895000000000003</v>
@@ -8374,10 +8351,10 @@
         <v>2</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E89" s="3">
         <v>2.6829999999999998</v>
@@ -8416,10 +8393,10 @@
         <v>4</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="E91" s="3">
         <v>31.01</v>
@@ -8500,10 +8477,10 @@
         <v>14</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E95" s="3">
         <v>20.468</v>
@@ -8521,10 +8498,10 @@
         <v>14</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="E96" s="3">
         <v>20.468</v>
@@ -8542,10 +8519,10 @@
         <v>14</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="E97" s="3">
         <v>20.468</v>
@@ -8563,10 +8540,10 @@
         <v>14</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="E98" s="3">
         <v>20.468</v>
@@ -8584,10 +8561,10 @@
         <v>14</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="E99" s="3">
         <v>20.468</v>
@@ -8605,10 +8582,10 @@
         <v>14</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="E100" s="3">
         <v>20.468</v>
@@ -8647,10 +8624,10 @@
         <v>5</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E102" s="3">
         <v>33.270000000000003</v>
@@ -8668,10 +8645,10 @@
         <v>5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E103" s="3">
         <v>33.270000000000003</v>
@@ -8689,10 +8666,10 @@
         <v>5</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="E104" s="3">
         <v>33.270000000000003</v>
@@ -8710,13 +8687,13 @@
         <v>12</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E105" s="3">
-        <v>6.2</v>
+        <v>6.1999999999999957</v>
       </c>
       <c r="F105" s="3">
         <v>1.03</v>
@@ -8752,10 +8729,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="E107" s="3">
         <v>22.84</v>
@@ -8773,10 +8750,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="E108" s="3">
         <v>22.84</v>
@@ -8794,10 +8771,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E109" s="3">
         <v>22.84</v>
@@ -8815,10 +8792,10 @@
         <v>1</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="E110" s="3">
         <v>22.84</v>
@@ -8836,13 +8813,13 @@
         <v>11</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E111" s="3">
-        <v>3.4</v>
+        <v>3.4000000000000021</v>
       </c>
       <c r="F111" s="3">
         <v>0.85</v>
@@ -8857,13 +8834,13 @@
         <v>11</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="E112" s="3">
-        <v>3.4</v>
+        <v>3.4000000000000021</v>
       </c>
       <c r="F112" s="3">
         <v>0.85</v>
@@ -8878,13 +8855,13 @@
         <v>11</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E113" s="3">
-        <v>3.4</v>
+        <v>3.4000000000000021</v>
       </c>
       <c r="F113" s="3">
         <v>0.85</v>
@@ -8899,10 +8876,10 @@
         <v>4</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E114" s="3">
         <v>16.7</v>
@@ -8920,10 +8897,10 @@
         <v>13</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E115" s="3">
         <v>13.3</v>
@@ -8947,7 +8924,7 @@
         <v>56</v>
       </c>
       <c r="E116" s="3">
-        <v>4.46</v>
+        <v>4.4600000000000009</v>
       </c>
       <c r="F116" s="3">
         <v>0.74</v>
@@ -8968,7 +8945,7 @@
         <v>124</v>
       </c>
       <c r="E117" s="3">
-        <v>4.46</v>
+        <v>4.4600000000000009</v>
       </c>
       <c r="F117" s="3">
         <v>0.74</v>
@@ -8983,13 +8960,13 @@
         <v>3</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="E118" s="3">
-        <v>4.46</v>
+        <v>4.4600000000000009</v>
       </c>
       <c r="F118" s="3">
         <v>0.74</v>
@@ -9004,13 +8981,13 @@
         <v>3</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="E119" s="3">
-        <v>4.46</v>
+        <v>4.4600000000000009</v>
       </c>
       <c r="F119" s="3">
         <v>0.74</v>
@@ -9025,13 +9002,13 @@
         <v>3</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E120" s="3">
-        <v>4.46</v>
+        <v>4.4600000000000009</v>
       </c>
       <c r="F120" s="3">
         <v>0.74</v>
@@ -9067,10 +9044,10 @@
         <v>4</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="E122" s="3">
         <v>16.07</v>
@@ -9088,10 +9065,10 @@
         <v>4</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E123" s="3">
         <v>14.94</v>
@@ -9109,13 +9086,13 @@
         <v>12</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E124" s="3">
-        <v>6.2</v>
+        <v>6.1999999999999957</v>
       </c>
       <c r="F124" s="3">
         <v>0.69</v>
@@ -9130,10 +9107,10 @@
         <v>4</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="E125" s="3">
         <v>14.31</v>
@@ -9151,13 +9128,13 @@
         <v>18</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="E126" s="3">
-        <v>7.8</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="F126" s="3">
         <v>0.65</v>
@@ -9172,10 +9149,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="E127" s="3">
         <v>12.14</v>
@@ -9193,13 +9170,13 @@
         <v>5</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="E128" s="3">
-        <v>5.56</v>
+        <v>5.5599999999999987</v>
       </c>
       <c r="F128" s="3">
         <v>0.56000000000000005</v>
@@ -9214,13 +9191,13 @@
         <v>12</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E129" s="3">
-        <v>6.2</v>
+        <v>6.1999999999999957</v>
       </c>
       <c r="F129" s="3">
         <v>0.48</v>
@@ -9241,7 +9218,7 @@
         <v>43</v>
       </c>
       <c r="E130" s="3">
-        <v>12.9</v>
+        <v>12.900000000000009</v>
       </c>
       <c r="F130" s="3">
         <v>0.43</v>
@@ -9262,7 +9239,7 @@
         <v>61</v>
       </c>
       <c r="E131" s="3">
-        <v>12.9</v>
+        <v>12.900000000000009</v>
       </c>
       <c r="F131" s="3">
         <v>0.43</v>
@@ -9283,7 +9260,7 @@
         <v>137</v>
       </c>
       <c r="E132" s="3">
-        <v>12.9</v>
+        <v>12.900000000000009</v>
       </c>
       <c r="F132" s="3">
         <v>0.43</v>
@@ -9298,13 +9275,13 @@
         <v>16</v>
       </c>
       <c r="C133" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="E133" s="3">
-        <v>12.9</v>
+        <v>12.900000000000009</v>
       </c>
       <c r="F133" s="3">
         <v>0.43</v>
@@ -9319,13 +9296,13 @@
         <v>16</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="E134" s="3">
-        <v>12.9</v>
+        <v>12.900000000000009</v>
       </c>
       <c r="F134" s="3">
         <v>0.43</v>
@@ -9340,13 +9317,13 @@
         <v>16</v>
       </c>
       <c r="C135" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="E135" s="3">
-        <v>12.9</v>
+        <v>12.900000000000009</v>
       </c>
       <c r="F135" s="3">
         <v>0.43</v>
@@ -9361,13 +9338,13 @@
         <v>16</v>
       </c>
       <c r="C136" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="E136" s="3">
-        <v>12.9</v>
+        <v>12.900000000000009</v>
       </c>
       <c r="F136" s="3">
         <v>0.43</v>
@@ -9382,13 +9359,13 @@
         <v>16</v>
       </c>
       <c r="C137" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="E137" s="3">
-        <v>12.9</v>
+        <v>12.900000000000009</v>
       </c>
       <c r="F137" s="3">
         <v>0.43</v>
@@ -9409,7 +9386,7 @@
         <v>66</v>
       </c>
       <c r="E138" s="3">
-        <v>7.17</v>
+        <v>7.1699999999999937</v>
       </c>
       <c r="F138" s="3">
         <v>0.42</v>
@@ -9430,7 +9407,7 @@
         <v>95</v>
       </c>
       <c r="E139" s="3">
-        <v>7.17</v>
+        <v>7.1699999999999937</v>
       </c>
       <c r="F139" s="3">
         <v>0.42</v>
@@ -9445,13 +9422,13 @@
         <v>7</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E140" s="3">
-        <v>7.17</v>
+        <v>7.1699999999999937</v>
       </c>
       <c r="F140" s="3">
         <v>0.42</v>
@@ -9466,13 +9443,13 @@
         <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E141" s="3">
-        <v>7.17</v>
+        <v>7.1699999999999937</v>
       </c>
       <c r="F141" s="3">
         <v>0.42</v>
@@ -9487,13 +9464,13 @@
         <v>7</v>
       </c>
       <c r="C142" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="E142" s="3">
-        <v>7.17</v>
+        <v>7.1699999999999937</v>
       </c>
       <c r="F142" s="3">
         <v>0.42</v>
@@ -9508,13 +9485,13 @@
         <v>7</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E143" s="3">
-        <v>7.17</v>
+        <v>7.1699999999999937</v>
       </c>
       <c r="F143" s="3">
         <v>0.42</v>
@@ -9535,7 +9512,7 @@
         <v>29</v>
       </c>
       <c r="E144" s="3">
-        <v>6.2</v>
+        <v>6.1999999999999957</v>
       </c>
       <c r="F144" s="3">
         <v>0.39</v>
@@ -9556,7 +9533,7 @@
         <v>86</v>
       </c>
       <c r="E145" s="3">
-        <v>6.2</v>
+        <v>6.1999999999999957</v>
       </c>
       <c r="F145" s="3">
         <v>0.39</v>
@@ -9571,13 +9548,13 @@
         <v>12</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E146" s="3">
-        <v>6.2</v>
+        <v>6.1999999999999957</v>
       </c>
       <c r="F146" s="3">
         <v>0.39</v>
@@ -9592,13 +9569,13 @@
         <v>12</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E147" s="3">
-        <v>6.2</v>
+        <v>6.1999999999999957</v>
       </c>
       <c r="F147" s="3">
         <v>0.39</v>
@@ -9613,13 +9590,13 @@
         <v>12</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="E148" s="3">
-        <v>6.2</v>
+        <v>6.1999999999999957</v>
       </c>
       <c r="F148" s="3">
         <v>0.39</v>
@@ -9631,19 +9608,19 @@
         <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="E149" s="3">
-        <v>0.73399999999999999</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F149" s="3">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="G149" s="2"/>
     </row>
@@ -9652,19 +9629,19 @@
         <v>148</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="E150" s="3">
-        <v>2.6829999999999998</v>
+        <v>5.5599999999999987</v>
       </c>
       <c r="F150" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G150" s="2"/>
     </row>
@@ -9673,19 +9650,19 @@
         <v>149</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E151" s="3">
-        <v>5.56</v>
+        <v>0.96000000000000085</v>
       </c>
       <c r="F151" s="3">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="G151" s="2"/>
     </row>
@@ -9697,13 +9674,13 @@
         <v>3</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="E152" s="3">
-        <v>0.96</v>
+        <v>0.96000000000000085</v>
       </c>
       <c r="F152" s="3">
         <v>0.19</v>
@@ -9715,19 +9692,19 @@
         <v>151</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>266</v>
+        <v>52</v>
       </c>
       <c r="E153" s="3">
-        <v>0.96</v>
+        <v>2.4400000000000062</v>
       </c>
       <c r="F153" s="3">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G153" s="2"/>
     </row>
@@ -9739,13 +9716,13 @@
         <v>17</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E154" s="3">
-        <v>2.44</v>
+        <v>2.4400000000000062</v>
       </c>
       <c r="F154" s="3">
         <v>0.14000000000000001</v>
@@ -9760,13 +9737,13 @@
         <v>17</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E155" s="3">
-        <v>2.44</v>
+        <v>2.4400000000000062</v>
       </c>
       <c r="F155" s="3">
         <v>0.14000000000000001</v>
@@ -9781,13 +9758,13 @@
         <v>17</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="E156" s="3">
-        <v>2.44</v>
+        <v>2.4400000000000062</v>
       </c>
       <c r="F156" s="3">
         <v>0.14000000000000001</v>
@@ -9802,13 +9779,13 @@
         <v>17</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="E157" s="3">
-        <v>2.44</v>
+        <v>2.4400000000000062</v>
       </c>
       <c r="F157" s="3">
         <v>0.14000000000000001</v>
@@ -9823,13 +9800,13 @@
         <v>17</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="E158" s="3">
-        <v>2.44</v>
+        <v>2.4400000000000062</v>
       </c>
       <c r="F158" s="3">
         <v>0.14000000000000001</v>
@@ -9844,13 +9821,13 @@
         <v>17</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="E159" s="3">
-        <v>2.44</v>
+        <v>2.4400000000000062</v>
       </c>
       <c r="F159" s="3">
         <v>0.14000000000000001</v>
@@ -9865,13 +9842,13 @@
         <v>17</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>344</v>
+        <v>149</v>
       </c>
       <c r="E160" s="3">
-        <v>2.44</v>
+        <v>2.4400000000000062</v>
       </c>
       <c r="F160" s="3">
         <v>0.14000000000000001</v>
@@ -9883,19 +9860,19 @@
         <v>159</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>384</v>
+        <v>224</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E161" s="3">
-        <v>2.44</v>
+        <v>3.4000000000000021</v>
       </c>
       <c r="F161" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G161" s="2"/>
     </row>
@@ -9904,19 +9881,19 @@
         <v>160</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>225</v>
+        <v>352</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>161</v>
+        <v>353</v>
       </c>
       <c r="E162" s="3">
-        <v>3.4</v>
+        <v>0.80000000000000071</v>
       </c>
       <c r="F162" s="3">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="G162" s="2"/>
     </row>
@@ -9925,19 +9902,19 @@
         <v>161</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>353</v>
+        <v>34</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="E163" s="3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F163" s="3">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G163" s="2"/>
     </row>
@@ -9946,13 +9923,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="E164" s="3">
         <v>0</v>
@@ -9967,13 +9944,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E165" s="3">
         <v>0</v>
@@ -9988,13 +9965,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>46</v>
+        <v>397</v>
       </c>
       <c r="E166" s="3">
         <v>0</v>
@@ -10009,13 +9986,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E167" s="3">
         <v>0</v>
@@ -10030,13 +10007,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E168" s="3">
         <v>0</v>
@@ -10054,7 +10031,7 @@
         <v>5</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>401</v>
+        <v>94</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>402</v>
@@ -10075,7 +10052,7 @@
         <v>5</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>403</v>
@@ -10093,13 +10070,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>404</v>
+        <v>193</v>
       </c>
       <c r="E171" s="3">
         <v>0</v>
@@ -10114,13 +10091,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E172" s="3">
         <v>0</v>
@@ -10138,10 +10115,10 @@
         <v>11</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="E173" s="3">
         <v>0</v>
@@ -10156,13 +10133,13 @@
         <v>172</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E174" s="3">
         <v>0</v>
@@ -10177,13 +10154,13 @@
         <v>173</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E175" s="3">
         <v>0</v>
@@ -10198,13 +10175,13 @@
         <v>174</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="E176" s="3">
         <v>0</v>
@@ -10222,10 +10199,10 @@
         <v>11</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="E177" s="3">
         <v>0</v>
@@ -10240,13 +10217,13 @@
         <v>176</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>381</v>
+        <v>49</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>382</v>
+        <v>50</v>
       </c>
       <c r="E178" s="3">
         <v>0</v>
@@ -10264,15 +10241,15 @@
         <v>13</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E179" s="5">
-        <v>-1.7763599999999999E-15</v>
-      </c>
-      <c r="F179" s="5">
+        <v>96</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+      <c r="F179" s="3">
         <v>0</v>
       </c>
       <c r="G179" s="2"/>
@@ -10285,15 +10262,15 @@
         <v>13</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E180" s="5">
-        <v>-1.7763599999999999E-15</v>
-      </c>
-      <c r="F180" s="5">
+        <v>191</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0</v>
+      </c>
+      <c r="F180" s="3">
         <v>0</v>
       </c>
       <c r="G180" s="2"/>
@@ -10306,15 +10283,15 @@
         <v>13</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>189</v>
+        <v>338</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E181" s="5">
-        <v>-1.7763599999999999E-15</v>
-      </c>
-      <c r="F181" s="5">
+        <v>341</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0</v>
+      </c>
+      <c r="F181" s="3">
         <v>0</v>
       </c>
       <c r="G181" s="2"/>
@@ -10327,15 +10304,15 @@
         <v>13</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E182" s="5">
-        <v>-1.7763599999999999E-15</v>
-      </c>
-      <c r="F182" s="5">
+        <v>366</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0</v>
+      </c>
+      <c r="F182" s="3">
         <v>0</v>
       </c>
       <c r="G182" s="2"/>
@@ -10348,15 +10325,15 @@
         <v>13</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>366</v>
+        <v>188</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E183" s="5">
-        <v>-1.7763599999999999E-15</v>
-      </c>
-      <c r="F183" s="5">
+        <v>189</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0</v>
+      </c>
+      <c r="F183" s="3">
         <v>0</v>
       </c>
       <c r="G183" s="2"/>
@@ -10369,15 +10346,15 @@
         <v>13</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>189</v>
+        <v>380</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E184" s="5">
-        <v>-1.7763599999999999E-15</v>
-      </c>
-      <c r="F184" s="5">
+        <v>382</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0</v>
+      </c>
+      <c r="F184" s="3">
         <v>0</v>
       </c>
       <c r="G184" s="2"/>
@@ -10387,19 +10364,19 @@
         <v>183</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E185" s="5">
-        <v>-1.7763599999999999E-15</v>
-      </c>
-      <c r="F185" s="5">
-        <v>0</v>
+        <v>336</v>
+      </c>
+      <c r="E185" s="3">
+        <v>-0.29999999999999799</v>
+      </c>
+      <c r="F185" s="3">
+        <v>-0.01</v>
       </c>
       <c r="G185" s="2"/>
     </row>
@@ -10408,19 +10385,19 @@
         <v>184</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>332</v>
+        <v>210</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>337</v>
+        <v>211</v>
       </c>
       <c r="E186" s="3">
-        <v>-0.3</v>
+        <v>-4.26</v>
       </c>
       <c r="F186" s="3">
-        <v>-0.01</v>
+        <v>-0.2</v>
       </c>
       <c r="G186" s="2"/>
     </row>
@@ -10429,19 +10406,19 @@
         <v>185</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="E187" s="3">
-        <v>-4.26</v>
+        <v>-6.004999999999999</v>
       </c>
       <c r="F187" s="3">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="G187" s="2"/>
     </row>
@@ -10450,19 +10427,19 @@
         <v>186</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="E188" s="3">
-        <v>-6.0049999999999999</v>
+        <v>-1.3399999999999981</v>
       </c>
       <c r="F188" s="3">
-        <v>-0.21</v>
+        <v>-0.27</v>
       </c>
       <c r="G188" s="2"/>
     </row>
@@ -10471,19 +10448,19 @@
         <v>187</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="E189" s="3">
-        <v>-1.34</v>
+        <v>-4.51</v>
       </c>
       <c r="F189" s="3">
-        <v>-0.27</v>
+        <v>-0.32</v>
       </c>
       <c r="G189" s="2"/>
     </row>
@@ -10492,16 +10469,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="E190" s="3">
-        <v>-4.51</v>
+        <v>-6.1400000000000041</v>
       </c>
       <c r="F190" s="3">
         <v>-0.32</v>
@@ -10516,13 +10493,13 @@
         <v>6</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="E191" s="3">
-        <v>-6.14</v>
+        <v>-6.1400000000000041</v>
       </c>
       <c r="F191" s="3">
         <v>-0.32</v>
@@ -10537,13 +10514,13 @@
         <v>6</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E192" s="3">
-        <v>-6.14</v>
+        <v>-6.1400000000000041</v>
       </c>
       <c r="F192" s="3">
         <v>-0.32</v>
@@ -10555,19 +10532,19 @@
         <v>191</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>112</v>
+        <v>344</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="E193" s="3">
-        <v>-6.14</v>
+        <v>-0.70000000000000107</v>
       </c>
       <c r="F193" s="3">
-        <v>-0.32</v>
+        <v>-0.35</v>
       </c>
       <c r="G193" s="2"/>
     </row>
@@ -10576,19 +10553,19 @@
         <v>192</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>345</v>
+        <v>70</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>346</v>
+        <v>71</v>
       </c>
       <c r="E194" s="3">
-        <v>-0.7</v>
+        <v>-3.9000000000000021</v>
       </c>
       <c r="F194" s="3">
-        <v>-0.35</v>
+        <v>-0.39</v>
       </c>
       <c r="G194" s="2"/>
     </row>
@@ -10597,16 +10574,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>71</v>
+        <v>312</v>
       </c>
       <c r="E195" s="3">
-        <v>-3.9</v>
+        <v>-9.4050000000000011</v>
       </c>
       <c r="F195" s="3">
         <v>-0.39</v>
@@ -10621,13 +10598,13 @@
         <v>11</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>313</v>
+        <v>390</v>
       </c>
       <c r="E196" s="3">
-        <v>-9.4049999999999994</v>
+        <v>-9.4050000000000011</v>
       </c>
       <c r="F196" s="3">
         <v>-0.39</v>
@@ -10639,19 +10616,19 @@
         <v>195</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>390</v>
+        <v>57</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>391</v>
+        <v>58</v>
       </c>
       <c r="E197" s="3">
-        <v>-9.4049999999999994</v>
+        <v>-5.8300000000000027</v>
       </c>
       <c r="F197" s="3">
-        <v>-0.39</v>
+        <v>-0.49</v>
       </c>
       <c r="G197" s="2"/>
     </row>
@@ -10660,19 +10637,19 @@
         <v>196</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E198" s="3">
-        <v>-5.83</v>
+        <v>-10.04000000000001</v>
       </c>
       <c r="F198" s="3">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="G198" s="2"/>
     </row>
@@ -10684,13 +10661,13 @@
         <v>6</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="E199" s="3">
-        <v>-10.039999999999999</v>
+        <v>-10.04000000000001</v>
       </c>
       <c r="F199" s="3">
         <v>-0.5</v>
@@ -10705,13 +10682,13 @@
         <v>6</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="E200" s="3">
-        <v>-10.039999999999999</v>
+        <v>-10.04000000000001</v>
       </c>
       <c r="F200" s="3">
         <v>-0.5</v>
@@ -10726,13 +10703,13 @@
         <v>6</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="E201" s="3">
-        <v>-10.039999999999999</v>
+        <v>-10.04000000000001</v>
       </c>
       <c r="F201" s="3">
         <v>-0.5</v>
@@ -10747,13 +10724,13 @@
         <v>6</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="E202" s="3">
-        <v>-10.039999999999999</v>
+        <v>-10.04000000000001</v>
       </c>
       <c r="F202" s="3">
         <v>-0.5</v>
@@ -10765,19 +10742,19 @@
         <v>201</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="E203" s="3">
-        <v>-10.039999999999999</v>
+        <v>-6.8000000000000016</v>
       </c>
       <c r="F203" s="3">
-        <v>-0.5</v>
+        <v>-0.52</v>
       </c>
       <c r="G203" s="2"/>
     </row>
@@ -10786,19 +10763,19 @@
         <v>202</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="E204" s="3">
-        <v>-6.8</v>
+        <v>-0.55999999999999872</v>
       </c>
       <c r="F204" s="3">
-        <v>-0.52</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="G204" s="2"/>
     </row>
@@ -10810,13 +10787,13 @@
         <v>4</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>91</v>
+        <v>331</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>93</v>
+        <v>333</v>
       </c>
       <c r="E205" s="3">
-        <v>-0.56000000000000005</v>
+        <v>-0.55999999999999872</v>
       </c>
       <c r="F205" s="3">
         <v>-0.56000000000000005</v>
@@ -10828,19 +10805,19 @@
         <v>204</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E206" s="3">
-        <v>-0.56000000000000005</v>
+        <v>-6.1400000000000041</v>
       </c>
       <c r="F206" s="3">
-        <v>-0.56000000000000005</v>
+        <v>-0.61</v>
       </c>
       <c r="G206" s="2"/>
     </row>
@@ -10849,19 +10826,19 @@
         <v>205</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>340</v>
+        <v>232</v>
       </c>
       <c r="E207" s="3">
-        <v>-6.14</v>
+        <v>-0.62999999999999989</v>
       </c>
       <c r="F207" s="3">
-        <v>-0.61</v>
+        <v>-0.63</v>
       </c>
       <c r="G207" s="2"/>
     </row>
@@ -10870,19 +10847,19 @@
         <v>206</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="E208" s="3">
-        <v>-0.63</v>
+        <v>-9.9300000000000033</v>
       </c>
       <c r="F208" s="3">
-        <v>-0.63</v>
+        <v>-0.71</v>
       </c>
       <c r="G208" s="2"/>
     </row>
@@ -10894,13 +10871,13 @@
         <v>7</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="E209" s="3">
-        <v>-9.93</v>
+        <v>-9.9300000000000033</v>
       </c>
       <c r="F209" s="3">
         <v>-0.71</v>
@@ -10912,19 +10889,19 @@
         <v>208</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>269</v>
+        <v>88</v>
       </c>
       <c r="E210" s="3">
-        <v>-9.93</v>
+        <v>-11.11699999999999</v>
       </c>
       <c r="F210" s="3">
-        <v>-0.71</v>
+        <v>-0.74</v>
       </c>
       <c r="G210" s="2"/>
     </row>
@@ -10936,13 +10913,13 @@
         <v>2</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E211" s="3">
-        <v>-11.117000000000001</v>
+        <v>-11.11699999999999</v>
       </c>
       <c r="F211" s="3">
         <v>-0.74</v>
@@ -10960,10 +10937,10 @@
         <v>100</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E212" s="3">
-        <v>-11.117000000000001</v>
+        <v>-11.11699999999999</v>
       </c>
       <c r="F212" s="3">
         <v>-0.74</v>
@@ -10978,13 +10955,13 @@
         <v>2</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="E213" s="3">
-        <v>-11.117000000000001</v>
+        <v>-11.11699999999999</v>
       </c>
       <c r="F213" s="3">
         <v>-0.74</v>
@@ -10999,13 +10976,13 @@
         <v>2</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="E214" s="3">
-        <v>-11.117000000000001</v>
+        <v>-11.11699999999999</v>
       </c>
       <c r="F214" s="3">
         <v>-0.74</v>
@@ -11020,13 +10997,13 @@
         <v>2</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
       <c r="E215" s="3">
-        <v>-11.117000000000001</v>
+        <v>-11.11699999999999</v>
       </c>
       <c r="F215" s="3">
         <v>-0.74</v>
@@ -11038,19 +11015,19 @@
         <v>214</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
       <c r="E216" s="3">
-        <v>-11.117000000000001</v>
+        <v>-6.004999999999999</v>
       </c>
       <c r="F216" s="3">
-        <v>-0.74</v>
+        <v>-1</v>
       </c>
       <c r="G216" s="2"/>
     </row>
@@ -11062,13 +11039,13 @@
         <v>11</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="E217" s="3">
-        <v>-6.0049999999999999</v>
+        <v>-6.004999999999999</v>
       </c>
       <c r="F217" s="3">
         <v>-1</v>
@@ -11083,13 +11060,13 @@
         <v>11</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="E218" s="3">
-        <v>-6.0049999999999999</v>
+        <v>-6.004999999999999</v>
       </c>
       <c r="F218" s="3">
         <v>-1</v>
@@ -11104,13 +11081,13 @@
         <v>11</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="E219" s="3">
-        <v>-6.0049999999999999</v>
+        <v>-6.004999999999999</v>
       </c>
       <c r="F219" s="3">
         <v>-1</v>
@@ -11122,19 +11099,19 @@
         <v>218</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>339</v>
+        <v>103</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>343</v>
+        <v>104</v>
       </c>
       <c r="E220" s="3">
-        <v>-6.0049999999999999</v>
+        <v>-13.79999999999999</v>
       </c>
       <c r="F220" s="3">
-        <v>-1</v>
+        <v>-1.06</v>
       </c>
       <c r="G220" s="2"/>
     </row>
@@ -11146,13 +11123,13 @@
         <v>2</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="E221" s="3">
-        <v>-13.8</v>
+        <v>-13.79999999999999</v>
       </c>
       <c r="F221" s="3">
         <v>-1.06</v>
@@ -11164,19 +11141,19 @@
         <v>220</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>276</v>
+        <v>23</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="E222" s="3">
-        <v>-13.8</v>
+        <v>-15.6</v>
       </c>
       <c r="F222" s="3">
-        <v>-1.06</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="G222" s="2"/>
     </row>
@@ -11188,10 +11165,10 @@
         <v>9</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E223" s="3">
         <v>-15.6</v>
@@ -11209,10 +11186,10 @@
         <v>9</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="E224" s="3">
         <v>-15.6</v>
@@ -11230,10 +11207,10 @@
         <v>9</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E225" s="3">
         <v>-15.6</v>
@@ -11251,10 +11228,10 @@
         <v>9</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="E226" s="3">
         <v>-15.6</v>
@@ -11272,10 +11249,10 @@
         <v>9</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="E227" s="3">
         <v>-15.6</v>
@@ -11293,10 +11270,10 @@
         <v>9</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="E228" s="3">
         <v>-15.6</v>
@@ -11314,10 +11291,10 @@
         <v>9</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>246</v>
+        <v>358</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="E229" s="3">
         <v>-15.6</v>
@@ -11332,19 +11309,19 @@
         <v>228</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="E230" s="3">
-        <v>-15.6</v>
+        <v>-11.11699999999999</v>
       </c>
       <c r="F230" s="3">
-        <v>-1.1100000000000001</v>
+        <v>-1.39</v>
       </c>
       <c r="G230" s="2"/>
     </row>
@@ -11353,19 +11330,19 @@
         <v>229</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="E231" s="3">
-        <v>-11.117000000000001</v>
+        <v>-13.3</v>
       </c>
       <c r="F231" s="3">
-        <v>-1.39</v>
+        <v>-2.66</v>
       </c>
       <c r="G231" s="2"/>
     </row>
@@ -11377,10 +11354,10 @@
         <v>13</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>84</v>
+        <v>349</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>69</v>
+        <v>351</v>
       </c>
       <c r="E232" s="3">
         <v>-13.3</v>
@@ -11395,19 +11372,19 @@
         <v>231</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="E233" s="3">
-        <v>-13.3</v>
+        <v>-3.9000000000000021</v>
       </c>
       <c r="F233" s="3">
-        <v>-2.66</v>
+        <v>-3.9</v>
       </c>
       <c r="G233" s="2"/>
     </row>
@@ -11419,13 +11396,13 @@
         <v>6</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E234" s="3">
-        <v>-3.9</v>
+        <v>-3.9000000000000021</v>
       </c>
       <c r="F234" s="3">
         <v>-3.9</v>
@@ -11440,13 +11417,13 @@
         <v>6</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="E235" s="3">
-        <v>-3.9</v>
+        <v>-3.9000000000000021</v>
       </c>
       <c r="F235" s="3">
         <v>-3.9</v>
@@ -11458,19 +11435,19 @@
         <v>234</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>263</v>
+        <v>386</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>265</v>
+        <v>387</v>
       </c>
       <c r="E236" s="3">
-        <v>-3.9</v>
+        <v>-4.4400000000000004</v>
       </c>
       <c r="F236" s="3">
-        <v>-3.9</v>
+        <v>-4.4400000000000004</v>
       </c>
       <c r="G236" s="2"/>
     </row>
@@ -11479,19 +11456,19 @@
         <v>235</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>387</v>
+        <v>57</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>388</v>
+        <v>59</v>
       </c>
       <c r="E237" s="3">
-        <v>-4.4400000000000004</v>
+        <v>-9.4050000000000011</v>
       </c>
       <c r="F237" s="3">
-        <v>-4.4400000000000004</v>
+        <v>-4.7</v>
       </c>
       <c r="G237" s="2"/>
     </row>
@@ -11503,13 +11480,13 @@
         <v>11</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="E238" s="3">
-        <v>-9.4049999999999994</v>
+        <v>-9.4050000000000011</v>
       </c>
       <c r="F238" s="3">
         <v>-4.7</v>
@@ -11521,19 +11498,19 @@
         <v>237</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="E239" s="3">
-        <v>-9.4049999999999994</v>
+        <v>-15.7</v>
       </c>
       <c r="F239" s="3">
-        <v>-4.7</v>
+        <v>-5.23</v>
       </c>
       <c r="G239" s="2"/>
     </row>
@@ -11542,100 +11519,83 @@
         <v>238</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>241</v>
+        <v>90</v>
       </c>
       <c r="E240" s="3">
-        <v>-15.7</v>
+        <v>-8.7999999999999989</v>
       </c>
       <c r="F240" s="3">
-        <v>-5.23</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="G240" s="2"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" s="3">
-        <v>239</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E241" s="3">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="F241" s="3">
-        <v>-8.8000000000000007</v>
-      </c>
+    <row r="241" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E241" s="3"/>
       <c r="G241" s="2"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E242" s="3"/>
       <c r="G242" s="2"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E243" s="3"/>
       <c r="G243" s="2"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E244" s="3"/>
       <c r="G244" s="2"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E245" s="3"/>
       <c r="G245" s="2"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E246" s="3"/>
       <c r="G246" s="2"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E247" s="3"/>
       <c r="G247" s="2"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E248" s="3"/>
       <c r="G248" s="2"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E249" s="3"/>
       <c r="G249" s="2"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E250" s="3"/>
       <c r="G250" s="2"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E251" s="3"/>
       <c r="G251" s="2"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E252" s="3"/>
       <c r="G252" s="2"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E253" s="3"/>
       <c r="G253" s="2"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E254" s="3"/>
       <c r="G254" s="2"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E255" s="3"/>
       <c r="G255" s="2"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E256" s="3"/>
       <c r="G256" s="2"/>
     </row>
@@ -11658,10 +11618,6 @@
     <row r="261" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E261" s="3"/>
       <c r="G261" s="2"/>
-    </row>
-    <row r="262" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E262" s="3"/>
-      <c r="G262" s="2"/>
     </row>
   </sheetData>
   <sortState ref="B3:F241">
